--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5853CF-8BFB-B94E-BF9C-13EF466EA2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E470633-CAD0-4641-B695-6EEB4671DAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2376,13 +2376,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1337.75</v>
+    <v>1365.6398999999999</v>
     <v>600.68499999999995</v>
-    <v>1.5730999999999999</v>
-    <v>-11.85</v>
-    <v>-9.1590000000000005E-3</v>
-    <v>-0.52</v>
-    <v>-4.0559999999999999E-4</v>
+    <v>1.5846</v>
+    <v>-15.7</v>
+    <v>-1.2078999999999999E-2</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2390,25 +2388,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1304.28</v>
+    <v>1297.1867999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.994391654691</v>
+    <v>45070.999190798437</v>
     <v>0</v>
-    <v>1268.1199999999999</v>
-    <v>64426420000</v>
+    <v>1261.105</v>
+    <v>64473098229</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1296.23</v>
-    <v>134.76730000000001</v>
-    <v>1293.77</v>
-    <v>1281.92</v>
-    <v>1281.4000000000001</v>
-    <v>50257750</v>
+    <v>1290</v>
+    <v>104.9671</v>
+    <v>1299.83</v>
+    <v>1284.1300000000001</v>
+    <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>262137</v>
-    <v>379205</v>
+    <v>326201</v>
+    <v>429737</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2440,8 +2437,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2462,7 +2457,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2479,7 +2473,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2490,16 +2484,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2565,19 +2556,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2622,9 +2607,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2632,9 +2614,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2996,10 +2975,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="Y99" sqref="Y99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4351,15 +4330,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>6.8233869942808729</v>
+        <v>6.8283306745392922</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>133.66477178423236</v>
+        <v>133.76161458298756</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>25.91569589702333</v>
+        <v>25.934472336685438</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8999,10 +8978,10 @@
       <c r="V83" s="1">
         <v>114000000</v>
       </c>
-      <c r="AC83" s="59" t="s">
+      <c r="AC83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="60"/>
+      <c r="AD83" s="62"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9071,10 +9050,10 @@
       <c r="V84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC84" s="61" t="s">
+      <c r="AC84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="62"/>
+      <c r="AD84" s="64"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9764,10 +9743,10 @@
       <c r="V93" s="1">
         <v>-1746000000</v>
       </c>
-      <c r="AC93" s="61" t="s">
+      <c r="AC93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="62"/>
+      <c r="AD93" s="64"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9915,7 +9894,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5730999999999999</v>
+        <v>1.5846</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10064,7 +10043,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.108671955</v>
+        <v>0.10916703000000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10134,10 +10113,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="61" t="s">
+      <c r="AC98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="62"/>
+      <c r="AD98" s="64"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10286,7 +10265,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>1.0079526852259027E-2</v>
+        <v>1.0072302823746195E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10361,7 +10340,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>64426420000</v>
+        <v>64473098229</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10436,7 +10415,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.98992047314774101</v>
+        <v>0.98992769717625384</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10511,7 +10490,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>65082420000</v>
+        <v>65129098229</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10581,10 +10560,10 @@
       <c r="V104" s="11">
         <v>3363000000</v>
       </c>
-      <c r="AC104" s="61" t="s">
+      <c r="AC104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="62"/>
+      <c r="AD104" s="64"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10682,7 +10661,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11062444441237186</v>
+        <v>0.11111313351176492</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10812,7 +10791,7 @@
       <c r="Z107" s="42"/>
       <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>90318013137.695724</v>
+        <v>89805461489.657028</v>
       </c>
       <c r="AB107" s="46" t="s">
         <v>148</v>
@@ -10843,7 +10822,7 @@
       </c>
       <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>97862822596.568405</v>
+        <v>97350270948.529709</v>
       </c>
       <c r="AB108" s="46" t="s">
         <v>144</v>
@@ -10853,14 +10832,14 @@
       </c>
       <c r="AD108" s="50">
         <f>AD105</f>
-        <v>0.11062444441237186</v>
+        <v>0.11111313351176492</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="63" t="s">
+      <c r="W109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="64"/>
+      <c r="X109" s="60"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="W110" s="51" t="s">
@@ -10868,7 +10847,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>71354762047.286591</v>
+        <v>70909228366.778046</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10895,7 +10874,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>74947762047.286591</v>
+        <v>74502228366.778046</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10913,7 +10892,7 @@
       </c>
       <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>1348.5522233794854</v>
+        <v>1340.5356339707027</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10922,7 +10901,7 @@
       </c>
       <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1281.92</v>
+        <v>1284.1300000000001</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10931,7 +10910,7 @@
       </c>
       <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>5.1978456829977926E-2</v>
+        <v>4.3925174219668239E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E470633-CAD0-4641-B695-6EEB4671DAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AA4C8-2C1C-8440-9414-D2F787426555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,9 +2378,11 @@
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
     <v>600.68499999999995</v>
-    <v>1.5846</v>
-    <v>-15.7</v>
-    <v>-1.2078999999999999E-2</v>
+    <v>1.5844</v>
+    <v>-32.54</v>
+    <v>-2.5377E-2</v>
+    <v>5.18</v>
+    <v>4.1449999999999994E-3</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2388,24 +2390,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1297.1867999999999</v>
+    <v>1301.9792</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.999190798437</v>
+    <v>45076.998389976565</v>
     <v>0</v>
-    <v>1261.105</v>
-    <v>64473098229</v>
+    <v>1242.32</v>
+    <v>62745454369</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1290</v>
-    <v>104.9671</v>
-    <v>1299.83</v>
-    <v>1284.1300000000001</v>
+    <v>1297.25</v>
+    <v>104.8143</v>
+    <v>1282.26</v>
+    <v>1249.72</v>
+    <v>1254.9000000000001</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>326201</v>
-    <v>429737</v>
+    <v>515103</v>
+    <v>443538</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2437,6 +2440,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2457,6 +2462,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2473,7 +2479,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2484,13 +2490,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2556,13 +2565,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2607,6 +2622,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2614,6 +2632,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2975,10 +2996,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y99" sqref="Y99"/>
+      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4330,15 +4351,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>6.8283306745392922</v>
+        <v>6.6453563195297605</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>133.76161458298756</v>
+        <v>130.17729122199171</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>25.934472336685438</v>
+        <v>25.239523076830249</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9894,7 +9915,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5846</v>
+        <v>1.5844</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10043,7 +10064,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10916703000000001</v>
+        <v>0.10915842000000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10265,7 +10286,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>1.0072302823746195E-2</v>
+        <v>1.0346765804172936E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10340,7 +10361,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>64473098229</v>
+        <v>62745454369</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10415,7 +10436,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.98992769717625384</v>
+        <v>0.98965323419582707</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10490,7 +10511,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>65129098229</v>
+        <v>63401454369</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10661,7 +10682,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11111313351176492</v>
+        <v>0.11115764251315917</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10791,7 +10812,7 @@
       <c r="Z107" s="42"/>
       <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>89805461489.657028</v>
+        <v>89759068026.534546</v>
       </c>
       <c r="AB107" s="46" t="s">
         <v>148</v>
@@ -10822,7 +10843,7 @@
       </c>
       <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>97350270948.529709</v>
+        <v>97303877485.407227</v>
       </c>
       <c r="AB108" s="46" t="s">
         <v>144</v>
@@ -10832,7 +10853,7 @@
       </c>
       <c r="AD108" s="50">
         <f>AD105</f>
-        <v>0.11111313351176492</v>
+        <v>0.11115764251315917</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10847,7 +10868,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>70909228366.778046</v>
+        <v>70868904661.372849</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10874,7 +10895,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>74502228366.778046</v>
+        <v>74461904661.372849</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10892,7 +10913,7 @@
       </c>
       <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>1340.5356339707027</v>
+        <v>1339.8100803171492</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10901,7 +10922,7 @@
       </c>
       <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1284.1300000000001</v>
+        <v>1249.72</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10910,7 +10931,7 @@
       </c>
       <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>4.3925174219668239E-2</v>
+        <v>7.2088212013210251E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AA4C8-2C1C-8440-9414-D2F787426555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958E78B-40FE-894B-A960-BE936F05F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,40 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +907,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,12 +974,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1031,21 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1247,7 +1284,7 @@
                   <c:v>7069409000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9442000000</c:v>
+                  <c:v>10537000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,11 +1425,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1432,7 +1469,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$V$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2220,15 +2257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>1587</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>1555751</xdr:colOff>
+      <xdr:colOff>1571626</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2254,6 +2291,64 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2377,12 +2472,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
-    <v>600.68499999999995</v>
-    <v>1.5844</v>
-    <v>-32.54</v>
-    <v>-2.5377E-2</v>
-    <v>5.18</v>
-    <v>4.1449999999999994E-3</v>
+    <v>609.05010000000004</v>
+    <v>1.5505</v>
+    <v>-29.03</v>
+    <v>-2.3722E-2</v>
+    <v>-1.49</v>
+    <v>-1.2470000000000001E-3</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2390,25 +2485,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1301.9792</v>
+    <v>1224</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45076.998389976565</v>
+    <v>45093.999529142966</v>
     <v>0</v>
-    <v>1242.32</v>
-    <v>62745454369</v>
+    <v>1192.5999999999999</v>
+    <v>59985039971</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1297.25</v>
-    <v>104.8143</v>
-    <v>1282.26</v>
-    <v>1249.72</v>
-    <v>1254.9000000000001</v>
+    <v>1224</v>
+    <v>100.03319999999999</v>
+    <v>1223.77</v>
+    <v>1194.74</v>
+    <v>1193.25</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>515103</v>
-    <v>443538</v>
+    <v>779948</v>
+    <v>430235</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2996,10 +3091,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
+      <selection pane="bottomRight" activeCell="Y83" sqref="Y83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3097,76 +3192,76 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -3240,7 +3335,7 @@
         <v>7069409000</v>
       </c>
       <c r="V3" s="1">
-        <v>9442000000</v>
+        <v>10537000000</v>
       </c>
       <c r="W3" s="28">
         <v>13132000000</v>
@@ -3258,21 +3353,21 @@
         <v>28407000000</v>
       </c>
       <c r="AB3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3353,11 +3448,11 @@
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.33561376912836693</v>
+        <v>0.49050649071230712</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3908070324083881</v>
+        <v>0.24627503084369362</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
@@ -3377,7 +3472,7 @@
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
-        <v>0.61504502184099918</v>
+        <v>0.66667592903564599</v>
       </c>
       <c r="AC4" s="17">
         <f>(V20+U20+T20)/3</f>
@@ -3388,7 +3483,7 @@
         <v>-38.345764237639422</v>
       </c>
       <c r="AE4" s="17">
-        <f>(V105+U105+T105)/3</f>
+        <f>(V106+U106+T106)/3</f>
         <v>2.4496870131200623</v>
       </c>
     </row>
@@ -3403,7 +3498,7 @@
         <v>1100000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>6138732</v>
@@ -3471,7 +3566,7 @@
         <v>4500000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10">
         <v>22110945</v>
@@ -3528,16 +3623,16 @@
         <v>5163000000</v>
       </c>
       <c r="AB6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3551,7 +3646,7 @@
         <v>0.80359999999999998</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>0.78269999999999995</v>
@@ -3605,23 +3700,24 @@
         <v>0.42509999999999998</v>
       </c>
       <c r="V7" s="2">
-        <v>0.54679999999999995</v>
+        <f>V6/V3</f>
+        <v>0.48998766252253961</v>
       </c>
       <c r="AB7" s="17">
         <f>V7</f>
-        <v>0.54679999999999995</v>
+        <v>0.48998766252253961</v>
       </c>
       <c r="AC7" s="20">
         <f>V21</f>
-        <v>0.1593</v>
+        <v>0.14273512384929296</v>
       </c>
       <c r="AD7" s="20">
         <f>V30</f>
-        <v>5.0999999999999997E-2</v>
+        <v>4.5743570276169689E-2</v>
       </c>
       <c r="AE7" s="20">
-        <f>V106/V3</f>
-        <v>0.26329167549248039</v>
+        <f>V107/V3</f>
+        <v>0.23593053051153079</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3635,7 +3731,7 @@
         <v>1000000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>2186220</v>
@@ -3694,7 +3790,7 @@
     </row>
     <row r="9" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3778,19 +3874,19 @@
       </c>
       <c r="V9" s="15">
         <f t="shared" si="1"/>
-        <v>0.11639483160347384</v>
+        <v>0.10429913637657777</v>
       </c>
       <c r="AB9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3798,22 +3894,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1">
         <v>24679801</v>
@@ -3862,19 +3958,19 @@
       </c>
       <c r="AB10" s="17">
         <f>V9</f>
-        <v>0.11639483160347384</v>
+        <v>0.10429913637657777</v>
       </c>
       <c r="AC10" s="20">
         <f>V13</f>
-        <v>0.20726540987079009</v>
+        <v>0.18572648761507071</v>
       </c>
       <c r="AD10" s="20">
         <f>V80</f>
-        <v>1.0590976488032197E-4</v>
+        <v>9.4903672772136282E-5</v>
       </c>
       <c r="AE10" s="20">
         <f>V89</f>
-        <v>4.8083033255666173E-2</v>
+        <v>4.3086267438549875E-2</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3882,22 +3978,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>4900000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1">
         <v>39975307</v>
@@ -3956,7 +4052,7 @@
         <v>4900000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>19112863</v>
@@ -4013,21 +4109,21 @@
         <v>1957000000</v>
       </c>
       <c r="AB12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4111,7 +4207,7 @@
       </c>
       <c r="V13" s="15">
         <f t="shared" si="2"/>
-        <v>0.20726540987079009</v>
+        <v>0.18572648761507071</v>
       </c>
       <c r="AB13" s="17">
         <f>V28/V72</f>
@@ -4135,67 +4231,67 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>2100000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -4209,7 +4305,7 @@
         <v>8000000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>21299083</v>
@@ -4266,16 +4362,16 @@
         <v>3056000000</v>
       </c>
       <c r="AB15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AD15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4289,7 +4385,7 @@
         <v>9100000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>27437815</v>
@@ -4349,40 +4445,40 @@
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>2.4111484784167882E-2</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AC16" s="62">
         <f>AD101/V3</f>
-        <v>6.6453563195297605</v>
-      </c>
-      <c r="AD16" s="30">
+        <v>5.6928006046312989</v>
+      </c>
+      <c r="AD16" s="62">
         <f>AD101/V28</f>
-        <v>130.17729122199171</v>
-      </c>
-      <c r="AE16" s="31">
-        <f>AD101/V106</f>
-        <v>25.239523076830249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <v>124.45029039626556</v>
+      </c>
+      <c r="AE16" s="63">
+        <f>AD101/V107</f>
+        <v>24.129139167739339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1">
         <v>8442427</v>
@@ -4430,7 +4526,7 @@
         <v>321000000</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4441,7 +4537,7 @@
         <v>800000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
         <v>1572497</v>
@@ -4498,10 +4594,19 @@
         <v>403000000</v>
       </c>
       <c r="AB18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4568,14 +4673,41 @@
       <c r="V19" s="10">
         <v>1504000000</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="W19" s="57">
+        <v>2007000000</v>
+      </c>
+      <c r="X19" s="57">
+        <v>2581000000</v>
+      </c>
+      <c r="Y19" s="57">
+        <v>3469000000</v>
+      </c>
+      <c r="Z19" s="57">
+        <v>4574000000</v>
+      </c>
+      <c r="AA19" s="57">
+        <v>5847000000</v>
+      </c>
+      <c r="AB19" s="30">
         <f>V40-V56-V61</f>
         <v>3593000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="62">
+        <f>AD101/W3</f>
+        <v>4.5678525716570206</v>
+      </c>
+      <c r="AD19" s="62">
+        <f>AD101/W28</f>
+        <v>68.366810999544114</v>
+      </c>
+      <c r="AE19" s="63">
+        <f>AD101/W106</f>
+        <v>197.83984159300792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4658,8 +4790,28 @@
         <f t="shared" si="3"/>
         <v>1.2624978939514286</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W20" s="16">
+        <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
+        <v>0.33444148936170204</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
+        <v>0.28599900348779284</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
+        <v>0.34405269275474626</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
+        <v>0.31853560103776313</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
+        <v>0.27831219938784435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4724,10 +4876,31 @@
         <v>9.4E-2</v>
       </c>
       <c r="V21" s="2">
-        <v>0.1593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <f>V19/V3</f>
+        <v>0.14273512384929296</v>
+      </c>
+      <c r="W21" s="61">
+        <f t="shared" ref="W21:AA21" si="9">W19/W3</f>
+        <v>0.15283277490100519</v>
+      </c>
+      <c r="X21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.1585283459246975</v>
+      </c>
+      <c r="Y21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.17676433121019108</v>
+      </c>
+      <c r="Z21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.19896472225847145</v>
+      </c>
+      <c r="AA21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.20582954905481043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4795,7 +4968,7 @@
         <v>1034000000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4860,10 +5033,11 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="V23" s="2">
-        <v>0.1095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <f>V22/V3</f>
+        <v>9.8130397646388909E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4874,7 +5048,7 @@
         <v>300000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-146392</v>
@@ -4931,7 +5105,7 @@
         <v>-254000000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4942,7 +5116,7 @@
         <v>-3200000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>665470</v>
@@ -4999,7 +5173,7 @@
         <v>780000000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5010,7 +5184,7 @@
         <v>-0.57140000000000002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>2.3599999999999999E-2</v>
@@ -5067,18 +5241,18 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>-1369362</v>
@@ -5135,7 +5309,7 @@
         <v>298000000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5202,10 +5376,25 @@
       <c r="V28" s="11">
         <v>482000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="59">
+        <v>877400000</v>
+      </c>
+      <c r="X28" s="59">
+        <v>1204000000</v>
+      </c>
+      <c r="Y28" s="59">
+        <v>1736000000</v>
+      </c>
+      <c r="Z28" s="59">
+        <v>2344000000</v>
+      </c>
+      <c r="AA28" s="59">
+        <v>3655000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5221,75 +5410,95 @@
         <v>-2.0671426978383676</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
         <v>-0.5445959791617816</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.041221621833385</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.94075904730659632</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.76533018535683794</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.68705375711788141</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.37046009747894959</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.31866668547363464</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.16059826110124931</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.38233228265941765</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.45753922424755356</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.28903761260622551</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.89894841822741745</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-3.6549346879535558</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.7013530135301353</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.99588951098552903</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-118.82743988684582</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.7860366849130891</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W29" s="16">
+        <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
+        <v>0.82033195020746885</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
+        <v>0.37223615226806483</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
+        <v>0.44186046511627897</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
+        <v>0.35023041474654382</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
+        <v>0.5593003412969284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5354,10 +5563,31 @@
         <v>1.18E-2</v>
       </c>
       <c r="V30" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <f>V28/V3</f>
+        <v>4.5743570276169689E-2</v>
+      </c>
+      <c r="W30" s="58">
+        <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
+        <v>6.681388973499848E-2</v>
+      </c>
+      <c r="X30" s="58">
+        <f t="shared" si="16"/>
+        <v>7.39512314968368E-2</v>
+      </c>
+      <c r="Y30" s="58">
+        <f t="shared" si="16"/>
+        <v>8.8458598726114654E-2</v>
+      </c>
+      <c r="Z30" s="58">
+        <f t="shared" si="16"/>
+        <v>0.10196180782113184</v>
+      </c>
+      <c r="AA30" s="58">
+        <f t="shared" si="16"/>
+        <v>0.12866546977857571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5424,8 +5654,23 @@
       <c r="V31" s="12">
         <v>9.7200000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W31" s="60">
+        <v>17.48</v>
+      </c>
+      <c r="X31" s="60">
+        <v>23.99</v>
+      </c>
+      <c r="Y31" s="60">
+        <v>34.58</v>
+      </c>
+      <c r="Z31" s="60">
+        <v>46.69</v>
+      </c>
+      <c r="AA31" s="60">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5631,7 +5876,7 @@
     </row>
     <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5639,79 +5884,79 @@
         <v>-0.2651752839320935</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
         <v>0.23956559482020334</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.310678666685505E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.8198104519089872E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.93764291334968775</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.7406533142509778</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-4.6130066213518018E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.6405836413832E-5</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.03721990815292E-4</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.6216261771955465E-5</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.2559685949470533E-5</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.9080960124658569E-5</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.0675923323076178E-5</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.5578661680671657E-5</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.5590361139102614E-6</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.4300774837918306E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.3494904312442506E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.1512394433801096E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.8799523091960224E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5720,67 +5965,67 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -5788,67 +6033,67 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -5856,13 +6101,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>8979838</v>
@@ -5924,13 +6169,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>3411266</v>
@@ -5992,13 +6237,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>12391104</v>
@@ -6060,13 +6305,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>6548564</v>
@@ -6128,43 +6373,43 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1">
         <v>222000</v>
@@ -6196,13 +6441,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>1159354</v>
@@ -6264,13 +6509,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>20099022</v>
@@ -6332,13 +6577,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>2343623</v>
@@ -6400,13 +6645,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <v>19657797</v>
@@ -6468,13 +6713,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>906382</v>
@@ -6536,13 +6781,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>20564179</v>
@@ -6604,22 +6849,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>9218153</v>
@@ -6672,13 +6917,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1">
         <v>1384650</v>
@@ -6740,13 +6985,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>28299</v>
@@ -6808,13 +7053,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>24320751</v>
@@ -6876,7 +7121,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>27300000</v>
@@ -6885,58 +7130,58 @@
         <v>24100000</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6944,7 +7189,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>27300000</v>
@@ -7012,13 +7257,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>2661208</v>
@@ -7080,13 +7325,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>131085</v>
@@ -7148,22 +7393,22 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1">
         <v>4989704</v>
@@ -7216,52 +7461,52 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1">
         <v>20465000</v>
@@ -7276,7 +7521,7 @@
         <v>67293000</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7284,13 +7529,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>8106546</v>
@@ -7352,13 +7597,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>10898839</v>
@@ -7420,13 +7665,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>12000000</v>
@@ -7435,7 +7680,7 @@
         <v>9000000</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>3389915</v>
@@ -7488,67 +7733,67 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1">
         <v>11469000</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7556,22 +7801,22 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1">
         <v>2556120</v>
@@ -7624,13 +7869,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>63927754</v>
@@ -7692,13 +7937,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>75927754</v>
@@ -7760,7 +8005,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1">
         <v>64100000</v>
@@ -7769,58 +8014,58 @@
         <v>65000000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7828,7 +8073,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>64100000</v>
@@ -7896,13 +8141,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>100000</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>130959</v>
@@ -7956,7 +8201,7 @@
         <v>50000</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7964,13 +8209,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-45126900</v>
@@ -8032,13 +8277,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-560542</v>
@@ -8100,7 +8345,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>-36900000</v>
@@ -8168,7 +8413,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-36800000</v>
@@ -8236,7 +8481,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>27300000</v>
@@ -8304,67 +8549,67 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -8372,67 +8617,67 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8440,7 +8685,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-2500000</v>
@@ -8508,7 +8753,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>600000</v>
@@ -8576,13 +8821,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-2003829</v>
@@ -8644,22 +8889,22 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1">
         <v>949582</v>
@@ -8671,7 +8916,7 @@
         <v>37940</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1">
         <v>4442822</v>
@@ -8709,91 +8954,91 @@
     </row>
     <row r="80" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.9301112473254415E-3</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.4047908484861004E-4</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.750680625543751E-4</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1891874286776809E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.4640726563868492E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.1295324933893495E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.5669157243897575E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.7218271995603959E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.554833541354486E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.9119190527161753E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.266980909405247E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2793795843174663E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2653532989815697E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
-        <v>1.0590976488032197E-4</v>
+        <f t="shared" si="18"/>
+        <v>9.4903672772136282E-5</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -8801,13 +9046,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>1659888</v>
@@ -8869,22 +9114,22 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1">
         <v>4026218</v>
@@ -8937,43 +9182,43 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1">
         <v>-237000</v>
@@ -8999,44 +9244,44 @@
       <c r="V83" s="1">
         <v>114000000</v>
       </c>
-      <c r="AC83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD83" s="62"/>
+      <c r="AC83" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD83" s="69"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1">
         <v>18061683</v>
@@ -9069,25 +9314,25 @@
         <v>688845000</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AC84" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD84" s="71"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>-33456</v>
@@ -9111,40 +9356,40 @@
         <v>-6042140</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD85" s="24">
         <f>V17</f>
@@ -9156,7 +9401,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>1900000</v>
@@ -9216,10 +9461,10 @@
         <v>618137000</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD86" s="24">
         <f>V56</f>
@@ -9231,13 +9476,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>3438604</v>
@@ -9294,7 +9539,7 @@
         <v>2940000000</v>
       </c>
       <c r="AC87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD87" s="24">
         <f>V61</f>
@@ -9306,13 +9551,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-2004603</v>
@@ -9368,104 +9613,104 @@
       <c r="V88" s="1">
         <v>-454000000</v>
       </c>
-      <c r="AC88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD88" s="34">
+      <c r="AC88" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD88" s="32">
         <f>AD85/(AD86+AD87)</f>
         <v>0.48932926829268292</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:V89" si="19">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.0960209562750051E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.6945295990752013E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.6270336111357118E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.5796943599531228E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.1974603274482429E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.0974088205593101E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.3305985106125853E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.4827834655286468E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.24070427331000863</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.1857556162197749E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.5935807545375049E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.1117200934158857E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.3537849716936259E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.7767719026737699E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.9572863293086226E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.2174449756069325E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.1043408296223918E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.3086267438549875E-2</v>
+      </c>
+      <c r="AC89" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.0960209562750051E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6945295990752013E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.6270336111357118E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5796943599531228E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1974603274482429E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0974088205593101E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.3305985106125853E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4827834655286468E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24070427331000863</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1857556162197749E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.5935807545375049E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.1117200934158857E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3537849716936259E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7767719026737699E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9572863293086226E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2174449756069325E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.1043408296223918E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.8083033255666173E-2</v>
-      </c>
-      <c r="AC89" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="AD89" s="24">
         <f>V27</f>
@@ -9477,37 +9722,37 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-12141243</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-39181473</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-5468180</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-3423439</v>
@@ -9528,7 +9773,7 @@
         <v>-4195000</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1">
         <v>-6937000</v>
@@ -9537,7 +9782,7 @@
         <v>-55728000</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="23" t="s">
         <v>19</v>
@@ -9552,16 +9797,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-4944956</v>
@@ -9614,10 +9859,10 @@
       <c r="V91" s="1">
         <v>-12694000000</v>
       </c>
-      <c r="AC91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD91" s="34">
+      <c r="AC91" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD91" s="32">
         <f>AD89/AD90</f>
         <v>0.38205128205128203</v>
       </c>
@@ -9627,13 +9872,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>1106712</v>
@@ -9689,10 +9934,10 @@
       <c r="V92" s="1">
         <v>11023000000</v>
       </c>
-      <c r="AC92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD92" s="36">
+      <c r="AC92" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD92" s="34">
         <f>AD88*(1-AD91)</f>
         <v>0.30238039399624767</v>
       </c>
@@ -9702,22 +9947,22 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>-58238</v>
@@ -9764,23 +10009,23 @@
       <c r="V93" s="1">
         <v>-1746000000</v>
       </c>
-      <c r="AC93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD93" s="64"/>
+      <c r="AC93" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD93" s="71"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-13039134</v>
@@ -9837,10 +10082,11 @@
         <v>-3871000000</v>
       </c>
       <c r="AC94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD94" s="37">
-        <v>4.095E-2</v>
+        <v>134</v>
+      </c>
+      <c r="AD94" s="35">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9848,22 +10094,22 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-9137223</v>
@@ -9875,10 +10121,10 @@
         <v>-3000000</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1">
         <v>-15936551</v>
@@ -9911,11 +10157,11 @@
         <v>-20000000</v>
       </c>
       <c r="AC95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD95" s="38" cm="1">
+        <v>135</v>
+      </c>
+      <c r="AD95" s="36" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5844</v>
+        <v>1.5505</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9923,13 +10169,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>9003</v>
@@ -9941,54 +10187,54 @@
         <v>50361806</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1">
         <v>1867215000</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1">
         <v>1519545000</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD96" s="37">
+        <v>136</v>
+      </c>
+      <c r="AD96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9997,37 +10243,37 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-2598223</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-1012225</v>
@@ -10039,13 +10285,13 @@
         <v>-2714000</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1">
         <v>-720000</v>
@@ -10059,12 +10305,12 @@
       <c r="V97" s="1">
         <v>-148000000</v>
       </c>
-      <c r="AC97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD97" s="36">
+      <c r="AC97" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD97" s="34">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10915842000000001</v>
+        <v>0.10971936000000002</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10072,31 +10318,31 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1">
         <v>-10593206</v>
@@ -10129,28 +10375,28 @@
         <v>-3356000</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AC98" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD98" s="71"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>12002335</v>
@@ -10207,7 +10453,7 @@
         <v>1084000000</v>
       </c>
       <c r="AC99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD99" s="24">
         <f>AD86+AD87</f>
@@ -10219,13 +10465,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>12011338</v>
@@ -10281,12 +10527,12 @@
       <c r="V100" s="10">
         <v>916000000</v>
       </c>
-      <c r="AC100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD100" s="34">
+      <c r="AC100" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD100" s="32">
         <f>AD99/AD103</f>
-        <v>1.0346765804172936E-2</v>
+        <v>1.0817756428875806E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10294,13 +10540,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>-455328</v>
@@ -10357,11 +10603,11 @@
         <v>-270000000</v>
       </c>
       <c r="AC101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD101" s="39" cm="1">
+        <v>141</v>
+      </c>
+      <c r="AD101" s="37" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>62745454369</v>
+        <v>59985039971</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10369,13 +10615,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>1955480</v>
@@ -10431,12 +10677,12 @@
       <c r="V102" s="10">
         <v>-284963000</v>
       </c>
-      <c r="AC102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD102" s="34">
+      <c r="AC102" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD102" s="32">
         <f>AD101/AD103</f>
-        <v>0.98965323419582707</v>
+        <v>0.98918224357112416</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10444,13 +10690,13 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>7024358</v>
@@ -10506,12 +10752,12 @@
       <c r="V103" s="1">
         <v>3647963000</v>
       </c>
-      <c r="AC103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD103" s="40">
+      <c r="AC103" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD103" s="38">
         <f>AD99+AD101</f>
-        <v>63401454369</v>
+        <v>60641039971</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10519,13 +10765,13 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11">
         <v>8979838</v>
@@ -10581,364 +10827,441 @@
       <c r="V104" s="11">
         <v>3363000000</v>
       </c>
-      <c r="AC104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD104" s="64"/>
+      <c r="AC104" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD104" s="71"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105" si="20">(B22*(1-J91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:U105" si="21">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="21"/>
+        <v>1729471.0820512821</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="21"/>
+        <v>6101130.3051282056</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="21"/>
+        <v>5113243.0769230779</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="21"/>
+        <v>61323972.053846151</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="21"/>
+        <v>48713118.817948721</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="21"/>
+        <v>48796375.366666667</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="21"/>
+        <v>53434728.448717952</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="21"/>
+        <v>100507686.15641026</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="21"/>
+        <v>-5697910.8076923043</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="21"/>
+        <v>100713904.34102565</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="21"/>
+        <v>79381989.743589744</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="21"/>
+        <v>45596323.076923072</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="21"/>
+        <v>73736828.205128208</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="21"/>
+        <v>170592687.17948717</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="21"/>
+        <v>196800356.41025639</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="21"/>
+        <v>709679107.69230771</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="21"/>
+        <v>-96967146.153846145</v>
+      </c>
+      <c r="V105" s="1">
+        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <v>2738958974.3589745</v>
+      </c>
+      <c r="W105" s="39">
+        <f>V105*(1+$AD$106)</f>
+        <v>3340738764.2721925</v>
+      </c>
+      <c r="X105" s="39">
+        <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
+        <v>4074736275.9323201</v>
+      </c>
+      <c r="Y105" s="39">
+        <f t="shared" si="22"/>
+        <v>4970001215.289875</v>
+      </c>
+      <c r="Z105" s="39">
+        <f t="shared" si="22"/>
+        <v>6061965832.2135572</v>
+      </c>
+      <c r="AA105" s="39">
+        <f t="shared" si="22"/>
+        <v>7393847236.4702053</v>
+      </c>
+      <c r="AB105" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC105" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>1.5902590026087848</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.0610499473136414E-2</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
-        <v>12.492140183106386</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-9.3513698556096148E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20732851126869334</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29401127336547628</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.73386021547700619</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.7675704618635687</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.7072840158859375</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.7344242687957543E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.28139203279565106</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.71961838620237573</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.31408981795328805</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3598491960376409</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.9769207023082482</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.61990290898866918</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.9920432460406081</v>
-      </c>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11115764251315917</v>
+        <v>0.11180352013910677</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:V106" si="23">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="23"/>
+        <v>1.5902590026087848</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.0610499473136414E-2</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="23"/>
+        <v>12.492140183106386</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="23"/>
+        <v>-9.3513698556096148E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="23"/>
+        <v>0.20732851126869334</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="23"/>
+        <v>0.29401127336547628</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="23"/>
+        <v>0.73386021547700619</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.7675704618635687</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="23"/>
+        <v>4.7072840158859375</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.7344242687957543E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.28139203279565106</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="23"/>
+        <v>0.71961838620237573</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.31408981795328805</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="23"/>
+        <v>1.3598491960376409</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="23"/>
+        <v>1.9769207023082482</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.61990290898866918</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="23"/>
+        <v>5.9920432460406081</v>
+      </c>
+      <c r="W106" s="65">
+        <v>303200000</v>
+      </c>
+      <c r="X106" s="65">
+        <v>537500000</v>
+      </c>
+      <c r="Y106" s="65">
+        <v>857300000</v>
+      </c>
+      <c r="Z106" s="65">
+        <v>1101000000</v>
+      </c>
+      <c r="AA106" s="65">
+        <v>1329000000</v>
+      </c>
+      <c r="AB106" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC106" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD106" s="42">
+        <f>(SUM(W4:AA4)/5)</f>
+        <v>0.21971113680301047</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
         <v>1434001</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>3714434</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>3675022</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>49583912</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>44947137</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>54265960</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>70220764</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>121752989</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>28298991</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>161510379</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>157094000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>112889000</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q107" s="1">
         <v>194126000</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R107" s="1">
         <v>133153000</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S107" s="1">
         <v>314221000</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T107" s="1">
         <v>935411000</v>
       </c>
-      <c r="U106" s="1">
+      <c r="U107" s="1">
         <v>355547000</v>
       </c>
-      <c r="V106" s="1">
+      <c r="V107" s="1">
         <v>2486000000</v>
       </c>
-      <c r="W106" s="41">
-        <f>V106*(1+$AD$106)</f>
-        <v>3104063197.2702503</v>
-      </c>
-      <c r="X106" s="41">
-        <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
-        <v>3875787744.4278393</v>
-      </c>
-      <c r="Y106" s="41">
-        <f t="shared" si="9"/>
-        <v>4839376547.8316689</v>
-      </c>
-      <c r="Z106" s="41">
-        <f t="shared" si="9"/>
-        <v>6042530426.3302641</v>
-      </c>
-      <c r="AA106" s="41">
-        <f t="shared" si="9"/>
-        <v>7544809458.8726816</v>
-      </c>
-      <c r="AB106" s="42" t="s">
+      <c r="W107" s="40"/>
+      <c r="X107" s="40"/>
+      <c r="Y107" s="40"/>
+      <c r="Z107" s="40"/>
+      <c r="AA107" s="43">
+        <f>AA105*(1+AD107)/(AD108-AD107)</f>
+        <v>87308595379.9655</v>
+      </c>
+      <c r="AB107" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="43" t="s">
+      <c r="AC107" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="AD106" s="44">
-        <f>(SUM(W4:AA4)/5)</f>
-        <v>0.24861753711594936</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="45">
-        <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>89759068026.534546</v>
-      </c>
-      <c r="AB107" s="46" t="s">
+      <c r="AD107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W108" s="43">
+        <f t="shared" ref="W108:Z108" si="24">W107+W105</f>
+        <v>3340738764.2721925</v>
+      </c>
+      <c r="X108" s="43">
+        <f t="shared" si="24"/>
+        <v>4074736275.9323201</v>
+      </c>
+      <c r="Y108" s="43">
+        <f t="shared" si="24"/>
+        <v>4970001215.289875</v>
+      </c>
+      <c r="Z108" s="43">
+        <f t="shared" si="24"/>
+        <v>6061965832.2135572</v>
+      </c>
+      <c r="AA108" s="43">
+        <f>AA107+AA105</f>
+        <v>94702442616.435699</v>
+      </c>
+      <c r="AB108" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC108" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="47" t="s">
+      <c r="AD108" s="48">
+        <f>AD105</f>
+        <v>0.11180352013910677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W109" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="45">
-        <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
-        <v>3104063197.2702503</v>
-      </c>
-      <c r="X108" s="45">
-        <f t="shared" si="10"/>
-        <v>3875787744.4278393</v>
-      </c>
-      <c r="Y108" s="45">
-        <f t="shared" si="10"/>
-        <v>4839376547.8316689</v>
-      </c>
-      <c r="Z108" s="45">
-        <f>Z107+Z106</f>
-        <v>6042530426.3302641</v>
-      </c>
-      <c r="AA108" s="45">
-        <f>AA107+AA106</f>
-        <v>97303877485.407227</v>
-      </c>
-      <c r="AB108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC108" s="49" t="s">
+      <c r="X109" s="67"/>
+    </row>
+    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W110" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="50">
-        <f>AD105</f>
-        <v>0.11115764251315917</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="59" t="s">
+      <c r="X110" s="37">
+        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
+        <v>69631872285.91861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W111" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="60"/>
-    </row>
-    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="X110" s="39">
-        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>70868904661.372849</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="X111" s="39">
+      <c r="X111" s="37">
         <f>V40</f>
         <v>4249000000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="X112" s="39">
+      <c r="W112" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="X112" s="37">
         <f>AD99</f>
         <v>656000000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="X113" s="39">
+      <c r="W113" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="X113" s="37">
         <f>X110+X111-X112</f>
-        <v>74461904661.372849</v>
+        <v>73224872285.91861</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="X114" s="52">
+      <c r="W114" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="X114" s="50">
         <f>V34*(1+(5*AB16))</f>
         <v>55576462.481717423</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="53" t="s">
+      <c r="W115" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="X115" s="52">
+        <f>X113/X114</f>
+        <v>1317.5518738711887</v>
+      </c>
+    </row>
+    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W116" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="X116" s="53" cm="1">
+        <f t="array" ref="X116">_FV(A1,"Price")</f>
+        <v>1194.74</v>
+      </c>
+    </row>
+    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W117" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="54">
-        <f>X113/X114</f>
-        <v>1339.8100803171492</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="51" t="s">
+      <c r="X117" s="55">
+        <f>X115/X116-1</f>
+        <v>0.10279380774996127</v>
+      </c>
+    </row>
+    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W118" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="55" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1249.72</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="X117" s="57">
-        <f>X115/X116-1</f>
-        <v>7.2088212013210251E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="X118" s="58" t="str">
+      <c r="X118" s="56" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -10997,8 +11320,9 @@
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1099590/000109959023000007/0001099590-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1099590/000109959023000007/0001099590-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:MELI/explorer/revenue_proj" xr:uid="{A9D81E4D-9076-5E4D-ABE8-395EC388EF92}"/>
+    <hyperlink ref="AB106" r:id="rId45" xr:uid="{11060F21-E241-3E4E-9D40-CF67BCD582C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958E78B-40FE-894B-A960-BE936F05F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03D687-38AD-AD44-BAC8-3007023F6D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2316,6 +2316,7 @@
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2336,7 +2337,7 @@
       <sheetData sheetId="12">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.7229999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2346,6 +2347,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2472,12 +2474,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
-    <v>609.05010000000004</v>
-    <v>1.5505</v>
-    <v>-29.03</v>
-    <v>-2.3722E-2</v>
-    <v>-1.49</v>
-    <v>-1.2470000000000001E-3</v>
+    <v>611.46</v>
+    <v>1.5649</v>
+    <v>-13.56</v>
+    <v>-1.0922000000000001E-2</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2485,25 +2485,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1224</v>
+    <v>1230.53</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45093.999529142966</v>
+    <v>45100.775042626563</v>
     <v>0</v>
-    <v>1192.5999999999999</v>
-    <v>59985039971</v>
+    <v>1190.6400000000001</v>
+    <v>61652434699</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1224</v>
-    <v>100.03319999999999</v>
-    <v>1223.77</v>
-    <v>1194.74</v>
-    <v>1193.25</v>
+    <v>1221.8499999999999</v>
+    <v>101.4833</v>
+    <v>1241.51</v>
+    <v>1227.95</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>779948</v>
-    <v>430235</v>
+    <v>472018</v>
+    <v>453835</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2535,8 +2534,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2557,7 +2554,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2574,7 +2570,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2585,16 +2581,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2660,19 +2653,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2717,9 +2704,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2727,9 +2711,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3094,7 +3075,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="V82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y83" sqref="Y83"/>
+      <selection pane="bottomRight" activeCell="X94" sqref="X94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4447,15 +4428,15 @@
       </c>
       <c r="AC16" s="62">
         <f>AD101/V3</f>
-        <v>5.6928006046312989</v>
+        <v>5.8510424882793961</v>
       </c>
       <c r="AD16" s="62">
         <f>AD101/V28</f>
-        <v>124.45029039626556</v>
+        <v>127.90961555809129</v>
       </c>
       <c r="AE16" s="63">
         <f>AD101/V107</f>
-        <v>24.129139167739339</v>
+        <v>24.79985305671762</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4694,15 +4675,15 @@
       </c>
       <c r="AC19" s="62">
         <f>AD101/W3</f>
-        <v>4.5678525716570206</v>
+        <v>4.6948244516448367</v>
       </c>
       <c r="AD19" s="62">
         <f>AD101/W28</f>
-        <v>68.366810999544114</v>
+        <v>70.267192499430138</v>
       </c>
       <c r="AE19" s="63">
         <f>AD101/W106</f>
-        <v>197.83984159300792</v>
+        <v>203.33916457453824</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10086,7 +10067,7 @@
       </c>
       <c r="AD94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10161,7 +10142,7 @@
       </c>
       <c r="AD95" s="36" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5505</v>
+        <v>1.5649</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10310,7 +10291,7 @@
       </c>
       <c r="AD97" s="34">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10971936000000002</v>
+        <v>0.110420373</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10532,7 +10513,7 @@
       </c>
       <c r="AD100" s="32">
         <f>AD99/AD103</f>
-        <v>1.0817756428875806E-2</v>
+        <v>1.0528269618214759E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10607,7 +10588,7 @@
       </c>
       <c r="AD101" s="37" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>59985039971</v>
+        <v>61652434699</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10682,7 +10663,7 @@
       </c>
       <c r="AD102" s="32">
         <f>AD101/AD103</f>
-        <v>0.98918224357112416</v>
+        <v>0.98947173038178526</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10757,7 +10738,7 @@
       </c>
       <c r="AD103" s="38">
         <f>AD99+AD101</f>
-        <v>60641039971</v>
+        <v>62308434699</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10948,7 +10929,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11180352013910677</v>
+        <v>0.11244137985696666</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11135,7 +11116,7 @@
       <c r="Z107" s="40"/>
       <c r="AA107" s="43">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>87308595379.9655</v>
+        <v>86671704286.676453</v>
       </c>
       <c r="AB107" s="44" t="s">
         <v>146</v>
@@ -11166,7 +11147,7 @@
       </c>
       <c r="AA108" s="43">
         <f>AA107+AA105</f>
-        <v>94702442616.435699</v>
+        <v>94065551523.146652</v>
       </c>
       <c r="AB108" s="44" t="s">
         <v>143</v>
@@ -11176,7 +11157,7 @@
       </c>
       <c r="AD108" s="48">
         <f>AD105</f>
-        <v>0.11180352013910677</v>
+        <v>0.11244137985696666</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11191,7 +11172,7 @@
       </c>
       <c r="X110" s="37">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>69631872285.91861</v>
+        <v>69077587201.254364</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11218,7 +11199,7 @@
       </c>
       <c r="X113" s="37">
         <f>X110+X111-X112</f>
-        <v>73224872285.91861</v>
+        <v>72670587201.254364</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11236,7 +11217,7 @@
       </c>
       <c r="X115" s="52">
         <f>X113/X114</f>
-        <v>1317.5518738711887</v>
+        <v>1307.5784955755373</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11245,7 +11226,7 @@
       </c>
       <c r="X116" s="53" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1194.74</v>
+        <v>1227.95</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11254,7 +11235,7 @@
       </c>
       <c r="X117" s="55">
         <f>X115/X116-1</f>
-        <v>0.10279380774996127</v>
+        <v>6.484669210923677E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03D687-38AD-AD44-BAC8-3007023F6D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4479BD-FC1B-CF40-8C95-49AE0A587C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -921,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1046,6 +1053,12 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2311,12 +2324,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2333,14 +2347,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2348,6 +2362,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2475,9 +2490,9 @@
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
     <v>611.46</v>
-    <v>1.5649</v>
-    <v>-13.56</v>
-    <v>-1.0922000000000001E-2</v>
+    <v>1.5692999999999999</v>
+    <v>-15.02</v>
+    <v>-1.2097999999999999E-2</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2485,23 +2500,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1230.53</v>
+    <v>1237.77</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45100.775042626563</v>
+    <v>45100.999660867972</v>
     <v>0</v>
-    <v>1190.6400000000001</v>
-    <v>61652434699</v>
+    <v>1190.03</v>
+    <v>61579130000</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>1221.8499999999999</v>
-    <v>101.4833</v>
+    <v>100.2555</v>
     <v>1241.51</v>
-    <v>1227.95</v>
+    <v>1226.49</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>472018</v>
+    <v>2</v>
     <v>453835</v>
     <v>1999</v>
   </rv>
@@ -2655,10 +2670,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3072,10 +3087,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X94" sqref="X94"/>
+      <selection pane="bottomRight" activeCell="Y96" sqref="Y96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4428,15 +4443,15 @@
       </c>
       <c r="AC16" s="62">
         <f>AD101/V3</f>
-        <v>5.8510424882793961</v>
+        <v>5.8440856031128403</v>
       </c>
       <c r="AD16" s="62">
         <f>AD101/V28</f>
-        <v>127.90961555809129</v>
+        <v>127.75753112033195</v>
       </c>
       <c r="AE16" s="63">
         <f>AD101/V107</f>
-        <v>24.79985305671762</v>
+        <v>24.770366049879325</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4675,15 +4690,15 @@
       </c>
       <c r="AC19" s="62">
         <f>AD101/W3</f>
-        <v>4.6948244516448367</v>
+        <v>4.689242308863844</v>
       </c>
       <c r="AD19" s="62">
         <f>AD101/W28</f>
-        <v>70.267192499430138</v>
+        <v>70.183644859813086</v>
       </c>
       <c r="AE19" s="63">
         <f>AD101/W106</f>
-        <v>203.33916457453824</v>
+        <v>203.0973944591029</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,7 +4807,7 @@
         <v>0.27831219938784435</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4880,6 +4895,12 @@
         <f t="shared" si="9"/>
         <v>0.20582954905481043</v>
       </c>
+      <c r="AD21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4947,6 +4968,14 @@
       </c>
       <c r="V22" s="10">
         <v>1034000000</v>
+      </c>
+      <c r="AD22" s="66">
+        <f>(-1*V98)/AD101</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="67">
+        <f>V107/AD101</f>
+        <v>4.0370820438677846E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9225,10 +9254,10 @@
       <c r="V83" s="1">
         <v>114000000</v>
       </c>
-      <c r="AC83" s="68" t="s">
+      <c r="AC83" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AD83" s="69"/>
+      <c r="AD83" s="71"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9297,10 +9326,10 @@
       <c r="V84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC84" s="70" t="s">
+      <c r="AC84" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="AD84" s="71"/>
+      <c r="AD84" s="73"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9990,10 +10019,10 @@
       <c r="V93" s="1">
         <v>-1746000000</v>
       </c>
-      <c r="AC93" s="70" t="s">
+      <c r="AC93" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="AD93" s="71"/>
+      <c r="AD93" s="73"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10067,7 +10096,7 @@
       </c>
       <c r="AD94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10142,7 +10171,7 @@
       </c>
       <c r="AD95" s="36" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5649</v>
+        <v>1.5692999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10291,7 +10320,7 @@
       </c>
       <c r="AD97" s="34">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.110420373</v>
+        <v>0.11053507300000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10358,13 +10387,13 @@
       <c r="U98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC98" s="70" t="s">
+      <c r="V98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="AD98" s="71"/>
+      <c r="AD98" s="73"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10513,7 +10542,7 @@
       </c>
       <c r="AD100" s="32">
         <f>AD99/AD103</f>
-        <v>1.0528269618214759E-2</v>
+        <v>1.0540670518403352E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10588,7 +10617,7 @@
       </c>
       <c r="AD101" s="37" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>61652434699</v>
+        <v>61579130000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10663,7 +10692,7 @@
       </c>
       <c r="AD102" s="32">
         <f>AD101/AD103</f>
-        <v>0.98947173038178526</v>
+        <v>0.98945932948159665</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10738,7 +10767,7 @@
       </c>
       <c r="AD103" s="38">
         <f>AD99+AD101</f>
-        <v>62308434699</v>
+        <v>62235130000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10808,10 +10837,10 @@
       <c r="V104" s="11">
         <v>3363000000</v>
       </c>
-      <c r="AC104" s="70" t="s">
+      <c r="AC104" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="AD104" s="71"/>
+      <c r="AD104" s="73"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10929,7 +10958,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11244137985696666</v>
+        <v>0.11255725131911878</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11116,7 +11145,7 @@
       <c r="Z107" s="40"/>
       <c r="AA107" s="43">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>86671704286.676453</v>
+        <v>86557004739.21907</v>
       </c>
       <c r="AB107" s="44" t="s">
         <v>146</v>
@@ -11147,7 +11176,7 @@
       </c>
       <c r="AA108" s="43">
         <f>AA107+AA105</f>
-        <v>94065551523.146652</v>
+        <v>93950851975.68927</v>
       </c>
       <c r="AB108" s="44" t="s">
         <v>143</v>
@@ -11157,14 +11186,14 @@
       </c>
       <c r="AD108" s="48">
         <f>AD105</f>
-        <v>0.11244137985696666</v>
+        <v>0.11255725131911878</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="66" t="s">
+      <c r="W109" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="X109" s="67"/>
+      <c r="X109" s="69"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="W110" s="49" t="s">
@@ -11172,7 +11201,7 @@
       </c>
       <c r="X110" s="37">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>69077587201.254364</v>
+        <v>68977776050.202393</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11199,7 +11228,7 @@
       </c>
       <c r="X113" s="37">
         <f>X110+X111-X112</f>
-        <v>72670587201.254364</v>
+        <v>72570776050.202393</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11217,7 +11246,7 @@
       </c>
       <c r="X115" s="52">
         <f>X113/X114</f>
-        <v>1307.5784955755373</v>
+        <v>1305.7825707074369</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11226,7 +11255,7 @@
       </c>
       <c r="X116" s="53" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1227.95</v>
+        <v>1226.49</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11235,7 +11264,7 @@
       </c>
       <c r="X117" s="55">
         <f>X115/X116-1</f>
-        <v>6.484669210923677E-2</v>
+        <v>6.4649993646451964E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4479BD-FC1B-CF40-8C95-49AE0A587C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC32EE-F2AD-6248-8F21-A8F4ED4A8AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,80 +917,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,22 +952,56 @@
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2350,7 +2277,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2490,9 +2417,11 @@
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
     <v>611.46</v>
-    <v>1.5692999999999999</v>
-    <v>-15.02</v>
-    <v>-1.2097999999999999E-2</v>
+    <v>1.5334000000000001</v>
+    <v>13.15</v>
+    <v>1.1225000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2500,24 +2429,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1237.77</v>
+    <v>1212.5999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45100.999660867972</v>
+    <v>45107.997018032031</v>
     <v>0</v>
-    <v>1190.03</v>
-    <v>61579130000</v>
+    <v>1173.26</v>
+    <v>59475930000</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1221.8499999999999</v>
-    <v>100.2555</v>
-    <v>1241.51</v>
-    <v>1226.49</v>
+    <v>1188</v>
+    <v>95.756500000000003</v>
+    <v>1171.45</v>
+    <v>1184.5999999999999</v>
+    <v>1184.5999999999999</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>2</v>
-    <v>453835</v>
+    <v>489624</v>
+    <v>464243</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2549,6 +2479,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2569,6 +2501,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2585,7 +2518,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2596,13 +2529,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2668,13 +2604,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2719,6 +2661,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2726,6 +2671,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3087,10 +3035,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y96" sqref="Y96"/>
+      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3167,19 +3115,19 @@
       <c r="V1" s="8">
         <v>2022</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="23">
         <v>2023</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2024</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2025</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2026</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3333,19 +3281,19 @@
       <c r="V3" s="1">
         <v>10537000000</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="24">
         <v>13132000000</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="24">
         <v>16281000000</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="24">
         <v>19625000000</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="24">
         <v>22989000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="24">
         <v>28407000000</v>
       </c>
       <c r="AB3" s="18" t="s">
@@ -4437,21 +4385,21 @@
       <c r="V16" s="1">
         <v>7335000000</v>
       </c>
-      <c r="AB16" s="29">
+      <c r="AB16" s="25">
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>2.4111484784167882E-2</v>
       </c>
-      <c r="AC16" s="62">
+      <c r="AC16" s="36">
         <f>AD101/V3</f>
-        <v>5.8440856031128403</v>
-      </c>
-      <c r="AD16" s="62">
+        <v>5.6444841985384837</v>
+      </c>
+      <c r="AD16" s="36">
         <f>AD101/V28</f>
-        <v>127.75753112033195</v>
-      </c>
-      <c r="AE16" s="63">
+        <v>123.39404564315353</v>
+      </c>
+      <c r="AE16" s="37">
         <f>AD101/V107</f>
-        <v>24.770366049879325</v>
+        <v>23.92434835076428</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4669,36 +4617,36 @@
       <c r="V19" s="10">
         <v>1504000000</v>
       </c>
-      <c r="W19" s="57">
+      <c r="W19" s="31">
         <v>2007000000</v>
       </c>
-      <c r="X19" s="57">
+      <c r="X19" s="31">
         <v>2581000000</v>
       </c>
-      <c r="Y19" s="57">
+      <c r="Y19" s="31">
         <v>3469000000</v>
       </c>
-      <c r="Z19" s="57">
+      <c r="Z19" s="31">
         <v>4574000000</v>
       </c>
-      <c r="AA19" s="57">
+      <c r="AA19" s="31">
         <v>5847000000</v>
       </c>
-      <c r="AB19" s="30">
+      <c r="AB19" s="26">
         <f>V40-V56-V61</f>
         <v>3593000000</v>
       </c>
-      <c r="AC19" s="62">
+      <c r="AC19" s="36">
         <f>AD101/W3</f>
-        <v>4.689242308863844</v>
-      </c>
-      <c r="AD19" s="62">
+        <v>4.5290839171489488</v>
+      </c>
+      <c r="AD19" s="36">
         <f>AD101/W28</f>
-        <v>70.183644859813086</v>
-      </c>
-      <c r="AE19" s="63">
+        <v>67.786562571233191</v>
+      </c>
+      <c r="AE19" s="37">
         <f>AD101/W106</f>
-        <v>203.0973944591029</v>
+        <v>196.16071899736147</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4875,23 +4823,23 @@
         <f>V19/V3</f>
         <v>0.14273512384929296</v>
       </c>
-      <c r="W21" s="61">
+      <c r="W21" s="35">
         <f t="shared" ref="W21:AA21" si="9">W19/W3</f>
         <v>0.15283277490100519</v>
       </c>
-      <c r="X21" s="61">
+      <c r="X21" s="35">
         <f t="shared" si="9"/>
         <v>0.1585283459246975</v>
       </c>
-      <c r="Y21" s="61">
+      <c r="Y21" s="35">
         <f t="shared" si="9"/>
         <v>0.17676433121019108</v>
       </c>
-      <c r="Z21" s="61">
+      <c r="Z21" s="35">
         <f t="shared" si="9"/>
         <v>0.19896472225847145</v>
       </c>
-      <c r="AA21" s="61">
+      <c r="AA21" s="35">
         <f t="shared" si="9"/>
         <v>0.20582954905481043</v>
       </c>
@@ -4969,13 +4917,13 @@
       <c r="V22" s="10">
         <v>1034000000</v>
       </c>
-      <c r="AD22" s="66">
+      <c r="AD22" s="40">
         <f>(-1*V98)/AD101</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="67">
+      <c r="AE22" s="41">
         <f>V107/AD101</f>
-        <v>4.0370820438677846E-2</v>
+        <v>4.1798421647210898E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5386,19 +5334,19 @@
       <c r="V28" s="11">
         <v>482000000</v>
       </c>
-      <c r="W28" s="59">
+      <c r="W28" s="33">
         <v>877400000</v>
       </c>
-      <c r="X28" s="59">
+      <c r="X28" s="33">
         <v>1204000000</v>
       </c>
-      <c r="Y28" s="59">
+      <c r="Y28" s="33">
         <v>1736000000</v>
       </c>
-      <c r="Z28" s="59">
+      <c r="Z28" s="33">
         <v>2344000000</v>
       </c>
-      <c r="AA28" s="59">
+      <c r="AA28" s="33">
         <v>3655000000</v>
       </c>
     </row>
@@ -5576,23 +5524,23 @@
         <f>V28/V3</f>
         <v>4.5743570276169689E-2</v>
       </c>
-      <c r="W30" s="58">
+      <c r="W30" s="32">
         <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
         <v>6.681388973499848E-2</v>
       </c>
-      <c r="X30" s="58">
+      <c r="X30" s="32">
         <f t="shared" si="16"/>
         <v>7.39512314968368E-2</v>
       </c>
-      <c r="Y30" s="58">
+      <c r="Y30" s="32">
         <f t="shared" si="16"/>
         <v>8.8458598726114654E-2</v>
       </c>
-      <c r="Z30" s="58">
+      <c r="Z30" s="32">
         <f t="shared" si="16"/>
         <v>0.10196180782113184</v>
       </c>
-      <c r="AA30" s="58">
+      <c r="AA30" s="32">
         <f t="shared" si="16"/>
         <v>0.12866546977857571</v>
       </c>
@@ -5664,19 +5612,19 @@
       <c r="V31" s="12">
         <v>9.7200000000000006</v>
       </c>
-      <c r="W31" s="60">
+      <c r="W31" s="34">
         <v>17.48</v>
       </c>
-      <c r="X31" s="60">
+      <c r="X31" s="34">
         <v>23.99</v>
       </c>
-      <c r="Y31" s="60">
+      <c r="Y31" s="34">
         <v>34.58</v>
       </c>
-      <c r="Z31" s="60">
+      <c r="Z31" s="34">
         <v>46.69</v>
       </c>
-      <c r="AA31" s="60">
+      <c r="AA31" s="34">
         <v>72.8</v>
       </c>
     </row>
@@ -9254,10 +9202,10 @@
       <c r="V83" s="1">
         <v>114000000</v>
       </c>
-      <c r="AC83" s="70" t="s">
+      <c r="AC83" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="AD83" s="71"/>
+      <c r="AD83" s="64"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9326,10 +9274,10 @@
       <c r="V84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC84" s="72" t="s">
+      <c r="AC84" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AD84" s="73"/>
+      <c r="AD84" s="65"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9398,10 +9346,10 @@
       <c r="V85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC85" s="23" t="s">
+      <c r="AC85" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AD85" s="24">
+      <c r="AD85" s="43">
         <f>V17</f>
         <v>321000000</v>
       </c>
@@ -9473,10 +9421,10 @@
       <c r="V86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC86" s="23" t="s">
+      <c r="AC86" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="AD86" s="24">
+      <c r="AD86" s="43">
         <f>V56</f>
         <v>142000000</v>
       </c>
@@ -9548,10 +9496,10 @@
       <c r="V87" s="10">
         <v>2940000000</v>
       </c>
-      <c r="AC87" s="23" t="s">
+      <c r="AC87" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="AD87" s="24">
+      <c r="AD87" s="43">
         <f>V61</f>
         <v>514000000</v>
       </c>
@@ -9623,10 +9571,10 @@
       <c r="V88" s="1">
         <v>-454000000</v>
       </c>
-      <c r="AC88" s="31" t="s">
+      <c r="AC88" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AD88" s="32">
+      <c r="AD88" s="45">
         <f>AD85/(AD86+AD87)</f>
         <v>0.48932926829268292</v>
       </c>
@@ -9719,10 +9667,10 @@
         <f t="shared" si="19"/>
         <v>4.3086267438549875E-2</v>
       </c>
-      <c r="AC89" s="23" t="s">
+      <c r="AC89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="AD89" s="24">
+      <c r="AD89" s="43">
         <f>V27</f>
         <v>298000000</v>
       </c>
@@ -9794,10 +9742,10 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC90" s="23" t="s">
+      <c r="AC90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="24">
+      <c r="AD90" s="43">
         <f>V25</f>
         <v>780000000</v>
       </c>
@@ -9869,10 +9817,10 @@
       <c r="V91" s="1">
         <v>-12694000000</v>
       </c>
-      <c r="AC91" s="31" t="s">
+      <c r="AC91" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AD91" s="32">
+      <c r="AD91" s="45">
         <f>AD89/AD90</f>
         <v>0.38205128205128203</v>
       </c>
@@ -9944,10 +9892,10 @@
       <c r="V92" s="1">
         <v>11023000000</v>
       </c>
-      <c r="AC92" s="33" t="s">
+      <c r="AC92" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AD92" s="34">
+      <c r="AD92" s="45">
         <f>AD88*(1-AD91)</f>
         <v>0.30238039399624767</v>
       </c>
@@ -10019,10 +9967,10 @@
       <c r="V93" s="1">
         <v>-1746000000</v>
       </c>
-      <c r="AC93" s="72" t="s">
+      <c r="AC93" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AD93" s="73"/>
+      <c r="AD93" s="65"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10091,12 +10039,12 @@
       <c r="V94" s="10">
         <v>-3871000000</v>
       </c>
-      <c r="AC94" s="23" t="s">
+      <c r="AC94" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AD94" s="35">
+      <c r="AD94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10166,12 +10114,12 @@
       <c r="V95" s="1">
         <v>-20000000</v>
       </c>
-      <c r="AC95" s="23" t="s">
+      <c r="AC95" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="AD95" s="36" cm="1">
+      <c r="AD95" s="47" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5692999999999999</v>
+        <v>1.5334000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10241,10 +10189,10 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC96" s="23" t="s">
+      <c r="AC96" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="AD96" s="35">
+      <c r="AD96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10315,12 +10263,12 @@
       <c r="V97" s="1">
         <v>-148000000</v>
       </c>
-      <c r="AC97" s="33" t="s">
+      <c r="AC97" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="AD97" s="34">
+      <c r="AD97" s="45">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.11053507300000001</v>
+        <v>0.10824836400000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10390,10 +10338,10 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="72" t="s">
+      <c r="AC98" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="AD98" s="73"/>
+      <c r="AD98" s="65"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10462,10 +10410,10 @@
       <c r="V99" s="1">
         <v>1084000000</v>
       </c>
-      <c r="AC99" s="23" t="s">
+      <c r="AC99" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AD99" s="24">
+      <c r="AD99" s="43">
         <f>AD86+AD87</f>
         <v>656000000</v>
       </c>
@@ -10537,12 +10485,12 @@
       <c r="V100" s="10">
         <v>916000000</v>
       </c>
-      <c r="AC100" s="31" t="s">
+      <c r="AC100" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="AD100" s="32">
+      <c r="AD100" s="45">
         <f>AD99/AD103</f>
-        <v>1.0540670518403352E-2</v>
+        <v>1.0909345500801321E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10612,12 +10560,12 @@
       <c r="V101" s="1">
         <v>-270000000</v>
       </c>
-      <c r="AC101" s="23" t="s">
+      <c r="AC101" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="AD101" s="37" cm="1">
+      <c r="AD101" s="29" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>61579130000</v>
+        <v>59475930000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10687,12 +10635,12 @@
       <c r="V102" s="10">
         <v>-284963000</v>
       </c>
-      <c r="AC102" s="31" t="s">
+      <c r="AC102" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="AD102" s="32">
+      <c r="AD102" s="45">
         <f>AD101/AD103</f>
-        <v>0.98945932948159665</v>
+        <v>0.98909065449919864</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10762,12 +10710,12 @@
       <c r="V103" s="1">
         <v>3647963000</v>
       </c>
-      <c r="AC103" s="33" t="s">
+      <c r="AC103" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AD103" s="38">
+      <c r="AD103" s="48">
         <f>AD99+AD101</f>
-        <v>62235130000</v>
+        <v>60131930000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10837,10 +10785,10 @@
       <c r="V104" s="11">
         <v>3363000000</v>
       </c>
-      <c r="AC104" s="72" t="s">
+      <c r="AC104" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="AD104" s="73"/>
+      <c r="AD104" s="65"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10930,35 +10878,35 @@
         <f>(V22*(1-$AD$91))+V77+V88+V81</f>
         <v>2738958974.3589745</v>
       </c>
-      <c r="W105" s="39">
+      <c r="W105" s="27">
         <f>V105*(1+$AD$106)</f>
         <v>3340738764.2721925</v>
       </c>
-      <c r="X105" s="39">
+      <c r="X105" s="27">
         <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
         <v>4074736275.9323201</v>
       </c>
-      <c r="Y105" s="39">
+      <c r="Y105" s="27">
         <f t="shared" si="22"/>
         <v>4970001215.289875</v>
       </c>
-      <c r="Z105" s="39">
+      <c r="Z105" s="27">
         <f t="shared" si="22"/>
         <v>6061965832.2135572</v>
       </c>
-      <c r="AA105" s="39">
+      <c r="AA105" s="27">
         <f t="shared" si="22"/>
         <v>7393847236.4702053</v>
       </c>
-      <c r="AB105" s="40" t="s">
+      <c r="AB105" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="AC105" s="25" t="s">
+      <c r="AC105" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="AD105" s="26">
+      <c r="AD105" s="50">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11255725131911878</v>
+        <v>0.11036621738800101</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11046,34 +10994,34 @@
         <f t="shared" si="23"/>
         <v>5.9920432460406081</v>
       </c>
-      <c r="W106" s="65">
+      <c r="W106" s="39">
         <v>303200000</v>
       </c>
-      <c r="X106" s="65">
+      <c r="X106" s="39">
         <v>537500000</v>
       </c>
-      <c r="Y106" s="65">
+      <c r="Y106" s="39">
         <v>857300000</v>
       </c>
-      <c r="Z106" s="65">
+      <c r="Z106" s="39">
         <v>1101000000</v>
       </c>
-      <c r="AA106" s="65">
+      <c r="AA106" s="39">
         <v>1329000000</v>
       </c>
-      <c r="AB106" s="40" t="s">
+      <c r="AB106" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AC106" s="41" t="s">
+      <c r="AC106" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="AD106" s="42">
+      <c r="AD106" s="52">
         <f>(SUM(W4:AA4)/5)</f>
         <v>0.21971113680301047</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -11139,139 +11087,139 @@
       <c r="V107" s="1">
         <v>2486000000</v>
       </c>
-      <c r="W107" s="40"/>
-      <c r="X107" s="40"/>
-      <c r="Y107" s="40"/>
-      <c r="Z107" s="40"/>
-      <c r="AA107" s="43">
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="29">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>86557004739.21907</v>
-      </c>
-      <c r="AB107" s="44" t="s">
+        <v>88778601761.581772</v>
+      </c>
+      <c r="AB107" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AC107" s="45" t="s">
+      <c r="AC107" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="AD107" s="46">
+      <c r="AD107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="43">
+      <c r="W108" s="29">
         <f t="shared" ref="W108:Z108" si="24">W107+W105</f>
         <v>3340738764.2721925</v>
       </c>
-      <c r="X108" s="43">
+      <c r="X108" s="29">
         <f t="shared" si="24"/>
         <v>4074736275.9323201</v>
       </c>
-      <c r="Y108" s="43">
+      <c r="Y108" s="29">
         <f t="shared" si="24"/>
         <v>4970001215.289875</v>
       </c>
-      <c r="Z108" s="43">
+      <c r="Z108" s="29">
         <f t="shared" si="24"/>
         <v>6061965832.2135572</v>
       </c>
-      <c r="AA108" s="43">
+      <c r="AA108" s="29">
         <f>AA107+AA105</f>
-        <v>93950851975.68927</v>
-      </c>
-      <c r="AB108" s="44" t="s">
+        <v>96172448998.051971</v>
+      </c>
+      <c r="AB108" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="AC108" s="47" t="s">
+      <c r="AC108" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="AD108" s="48">
+      <c r="AD108" s="52">
         <f>AD105</f>
-        <v>0.11255725131911878</v>
+        <v>0.11036621738800101</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="68" t="s">
+      <c r="W109" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="X109" s="69"/>
+      <c r="X109" s="62"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="49" t="s">
+      <c r="W110" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="X110" s="37">
+      <c r="X110" s="29">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>68977776050.202393</v>
+        <v>70911625246.230881</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="49" t="s">
+      <c r="W111" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="X111" s="37">
+      <c r="X111" s="29">
         <f>V40</f>
         <v>4249000000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="49" t="s">
+      <c r="W112" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="X112" s="37">
+      <c r="X112" s="29">
         <f>AD99</f>
         <v>656000000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="49" t="s">
+      <c r="W113" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="X113" s="37">
+      <c r="X113" s="29">
         <f>X110+X111-X112</f>
-        <v>72570776050.202393</v>
+        <v>74504625246.230881</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="49" t="s">
+      <c r="W114" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="X114" s="50">
+      <c r="X114" s="56">
         <f>V34*(1+(5*AB16))</f>
         <v>55576462.481717423</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="51" t="s">
+      <c r="W115" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="X115" s="52">
+      <c r="X115" s="58">
         <f>X113/X114</f>
-        <v>1305.7825707074369</v>
+        <v>1340.5787615708739</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="49" t="s">
+      <c r="W116" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="X116" s="53" cm="1">
+      <c r="X116" s="59" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1226.49</v>
+        <v>1184.5999999999999</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="54" t="s">
+      <c r="W117" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="X117" s="55">
+      <c r="X117" s="60">
         <f>X115/X116-1</f>
-        <v>6.4649993646451964E-2</v>
+        <v>0.13167209317142836</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="54" t="s">
+      <c r="W118" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="X118" s="56" t="str">
+      <c r="X118" s="61" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC32EE-F2AD-6248-8F21-A8F4ED4A8AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE35261-0173-F24A-8536-73882043F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,7 +2242,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2256,10 +2255,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2273,14 +2274,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2290,6 +2291,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2416,12 +2418,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
-    <v>611.46</v>
-    <v>1.5334000000000001</v>
-    <v>13.15</v>
-    <v>1.1225000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>615.54</v>
+    <v>1.5249999999999999</v>
+    <v>0.23</v>
+    <v>1.994E-4</v>
+    <v>5.18</v>
+    <v>4.4889999999999999E-3</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2429,25 +2431,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1212.5999999999999</v>
+    <v>1189.9799</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.997018032031</v>
+    <v>45114.998494837499</v>
     <v>0</v>
-    <v>1173.26</v>
-    <v>59475930000</v>
+    <v>1151.05</v>
+    <v>57930540000</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1188</v>
-    <v>95.756500000000003</v>
-    <v>1171.45</v>
-    <v>1184.5999999999999</v>
-    <v>1184.5999999999999</v>
+    <v>1166.53</v>
+    <v>94.296499999999995</v>
+    <v>1153.5899999999999</v>
+    <v>1153.82</v>
+    <v>1159</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>489624</v>
-    <v>464243</v>
+    <v>503268</v>
+    <v>489673</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3035,10 +3037,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
+      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4391,15 +4393,15 @@
       </c>
       <c r="AC16" s="36">
         <f>AD101/V3</f>
-        <v>5.6444841985384837</v>
+        <v>5.4978210116731514</v>
       </c>
       <c r="AD16" s="36">
         <f>AD101/V28</f>
-        <v>123.39404564315353</v>
+        <v>120.18784232365145</v>
       </c>
       <c r="AE16" s="37">
         <f>AD101/V107</f>
-        <v>23.92434835076428</v>
+        <v>23.302711182622687</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4638,15 +4640,15 @@
       </c>
       <c r="AC19" s="36">
         <f>AD101/W3</f>
-        <v>4.5290839171489488</v>
+        <v>4.4114026804751756</v>
       </c>
       <c r="AD19" s="36">
         <f>AD101/W28</f>
-        <v>67.786562571233191</v>
+        <v>66.02523364485981</v>
       </c>
       <c r="AE19" s="37">
         <f>AD101/W106</f>
-        <v>196.16071899736147</v>
+        <v>191.06378627968337</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,7 +4925,7 @@
       </c>
       <c r="AE22" s="41">
         <f>V107/AD101</f>
-        <v>4.1798421647210898E-2</v>
+        <v>4.291346153514191E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10044,7 +10046,7 @@
       </c>
       <c r="AD94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10119,7 +10121,7 @@
       </c>
       <c r="AD95" s="47" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5334000000000001</v>
+        <v>1.5249999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10268,7 +10270,7 @@
       </c>
       <c r="AD97" s="45">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10824836400000001</v>
+        <v>0.10688475</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10490,7 +10492,7 @@
       </c>
       <c r="AD100" s="45">
         <f>AD99/AD103</f>
-        <v>1.0909345500801321E-2</v>
+        <v>1.1197111145324507E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10565,7 +10567,7 @@
       </c>
       <c r="AD101" s="29" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>59475930000</v>
+        <v>57930540000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10640,7 +10642,7 @@
       </c>
       <c r="AD102" s="45">
         <f>AD101/AD103</f>
-        <v>0.98909065449919864</v>
+        <v>0.98880288885467549</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10715,7 +10717,7 @@
       </c>
       <c r="AD103" s="48">
         <f>AD99+AD101</f>
-        <v>60131930000</v>
+        <v>58586540000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10906,7 +10908,7 @@
       </c>
       <c r="AD105" s="50">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.11036621738800101</v>
+        <v>0.10907373645425278</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11093,7 +11095,7 @@
       <c r="Z107" s="28"/>
       <c r="AA107" s="29">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>88778601761.581772</v>
+        <v>90143411450.563644</v>
       </c>
       <c r="AB107" s="30" t="s">
         <v>146</v>
@@ -11124,7 +11126,7 @@
       </c>
       <c r="AA108" s="29">
         <f>AA107+AA105</f>
-        <v>96172448998.051971</v>
+        <v>97537258687.033844</v>
       </c>
       <c r="AB108" s="30" t="s">
         <v>143</v>
@@ -11134,7 +11136,7 @@
       </c>
       <c r="AD108" s="52">
         <f>AD105</f>
-        <v>0.11036621738800101</v>
+        <v>0.10907373645425278</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11149,7 +11151,7 @@
       </c>
       <c r="X110" s="29">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>70911625246.230881</v>
+        <v>72100290645.804565</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11176,7 +11178,7 @@
       </c>
       <c r="X113" s="29">
         <f>X110+X111-X112</f>
-        <v>74504625246.230881</v>
+        <v>75693290645.804565</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11194,7 +11196,7 @@
       </c>
       <c r="X115" s="58">
         <f>X113/X114</f>
-        <v>1340.5787615708739</v>
+        <v>1361.9666899580884</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11203,7 +11205,7 @@
       </c>
       <c r="X116" s="59" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1184.5999999999999</v>
+        <v>1153.82</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11212,7 +11214,7 @@
       </c>
       <c r="X117" s="60">
         <f>X115/X116-1</f>
-        <v>0.13167209317142836</v>
+        <v>0.1803978869824483</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE35261-0173-F24A-8536-73882043F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7727BD-76DF-1D41-8C1F-88BF1815B6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,8 +2240,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2250,21 +2249,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2274,24 +2274,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2420,10 +2408,8 @@
     <v>1365.6398999999999</v>
     <v>615.54</v>
     <v>1.5249999999999999</v>
-    <v>0.23</v>
-    <v>1.994E-4</v>
-    <v>5.18</v>
-    <v>4.4889999999999999E-3</v>
+    <v>-66.67</v>
+    <v>-5.7782E-2</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2431,25 +2417,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1189.9799</v>
+    <v>1109.489</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.998494837499</v>
+    <v>45117.999640370312</v>
     <v>0</v>
-    <v>1151.05</v>
-    <v>57930540000</v>
+    <v>1063.02</v>
+    <v>54583203211</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1166.53</v>
-    <v>94.296499999999995</v>
-    <v>1153.5899999999999</v>
+    <v>1108.04</v>
+    <v>88.865600000000001</v>
     <v>1153.82</v>
-    <v>1159</v>
+    <v>1087.1500000000001</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>503268</v>
-    <v>489673</v>
+    <v>20</v>
+    <v>484304</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2481,8 +2466,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2503,7 +2486,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2520,7 +2502,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2531,16 +2513,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2606,19 +2585,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2663,9 +2636,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2673,9 +2643,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3037,10 +3004,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
+      <selection pane="bottomRight" activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3284,19 +3251,19 @@
         <v>10537000000</v>
       </c>
       <c r="W3" s="24">
-        <v>13132000000</v>
+        <v>13559000000</v>
       </c>
       <c r="X3" s="24">
-        <v>16281000000</v>
+        <v>16300000000</v>
       </c>
       <c r="Y3" s="24">
-        <v>19625000000</v>
+        <v>19739000000</v>
       </c>
       <c r="Z3" s="24">
-        <v>22989000000</v>
+        <v>25948000000</v>
       </c>
       <c r="AA3" s="24">
-        <v>28407000000</v>
+        <v>34897000000</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>108</v>
@@ -3398,23 +3365,23 @@
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24627503084369362</v>
+        <v>0.28679889911739576</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23979591836734704</v>
+        <v>0.20215355114683975</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20539278914071613</v>
+        <v>0.21098159509202463</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17141401273885348</v>
+        <v>0.31455494199300871</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23567793292444206</v>
+        <v>0.34488207183597974</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -4393,15 +4360,15 @@
       </c>
       <c r="AC16" s="36">
         <f>AD101/V3</f>
-        <v>5.4978210116731514</v>
+        <v>5.1801464563917623</v>
       </c>
       <c r="AD16" s="36">
         <f>AD101/V28</f>
-        <v>120.18784232365145</v>
+        <v>113.24316018879668</v>
       </c>
       <c r="AE16" s="37">
         <f>AD101/V107</f>
-        <v>23.302711182622687</v>
+        <v>21.956236207160096</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4620,10 +4587,10 @@
         <v>1504000000</v>
       </c>
       <c r="W19" s="31">
-        <v>2007000000</v>
+        <v>2057000000</v>
       </c>
       <c r="X19" s="31">
-        <v>2581000000</v>
+        <v>2590000000</v>
       </c>
       <c r="Y19" s="31">
         <v>3469000000</v>
@@ -4640,15 +4607,15 @@
       </c>
       <c r="AC19" s="36">
         <f>AD101/W3</f>
-        <v>4.4114026804751756</v>
+        <v>4.0256068449738178</v>
       </c>
       <c r="AD19" s="36">
         <f>AD101/W28</f>
-        <v>66.02523364485981</v>
+        <v>63.175003716435185</v>
       </c>
       <c r="AE19" s="37">
         <f>AD101/W106</f>
-        <v>191.06378627968337</v>
+        <v>180.02375729221635</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4738,15 +4705,15 @@
       </c>
       <c r="W20" s="16">
         <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
-        <v>0.33444148936170204</v>
+        <v>0.36768617021276606</v>
       </c>
       <c r="X20" s="16">
         <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
-        <v>0.28599900348779284</v>
+        <v>0.25911521633446766</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
-        <v>0.34405269275474626</v>
+        <v>0.33938223938223944</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
@@ -4827,23 +4794,23 @@
       </c>
       <c r="W21" s="35">
         <f t="shared" ref="W21:AA21" si="9">W19/W3</f>
-        <v>0.15283277490100519</v>
+        <v>0.15170735304963492</v>
       </c>
       <c r="X21" s="35">
         <f t="shared" si="9"/>
-        <v>0.1585283459246975</v>
+        <v>0.15889570552147239</v>
       </c>
       <c r="Y21" s="35">
         <f t="shared" si="9"/>
-        <v>0.17676433121019108</v>
+        <v>0.1757434520492426</v>
       </c>
       <c r="Z21" s="35">
         <f t="shared" si="9"/>
-        <v>0.19896472225847145</v>
+        <v>0.17627562817943579</v>
       </c>
       <c r="AA21" s="35">
         <f t="shared" si="9"/>
-        <v>0.20582954905481043</v>
+        <v>0.16755021921655155</v>
       </c>
       <c r="AD21" s="18" t="s">
         <v>165</v>
@@ -4925,7 +4892,7 @@
       </c>
       <c r="AE22" s="41">
         <f>V107/AD101</f>
-        <v>4.291346153514191E-2</v>
+        <v>4.554514674395297E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5337,19 +5304,19 @@
         <v>482000000</v>
       </c>
       <c r="W28" s="33">
-        <v>877400000</v>
+        <v>864000000</v>
       </c>
       <c r="X28" s="33">
-        <v>1204000000</v>
+        <v>1190000000</v>
       </c>
       <c r="Y28" s="33">
-        <v>1736000000</v>
+        <v>1669000000</v>
       </c>
       <c r="Z28" s="33">
-        <v>2344000000</v>
+        <v>2179000000</v>
       </c>
       <c r="AA28" s="33">
-        <v>3655000000</v>
+        <v>3242000000</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5439,23 +5406,23 @@
       </c>
       <c r="W29" s="16">
         <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
-        <v>0.82033195020746885</v>
+        <v>0.79253112033195028</v>
       </c>
       <c r="X29" s="16">
         <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
-        <v>0.37223615226806483</v>
+        <v>0.37731481481481488</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
-        <v>0.44186046511627897</v>
+        <v>0.40252100840336125</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
-        <v>0.35023041474654382</v>
+        <v>0.30557219892150989</v>
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
-        <v>0.5593003412969284</v>
+        <v>0.48783845800826064</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5528,23 +5495,23 @@
       </c>
       <c r="W30" s="32">
         <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
-        <v>6.681388973499848E-2</v>
+        <v>6.372151338594291E-2</v>
       </c>
       <c r="X30" s="32">
         <f t="shared" si="16"/>
-        <v>7.39512314968368E-2</v>
+        <v>7.3006134969325148E-2</v>
       </c>
       <c r="Y30" s="32">
         <f t="shared" si="16"/>
-        <v>8.8458598726114654E-2</v>
+        <v>8.4553422159177258E-2</v>
       </c>
       <c r="Z30" s="32">
         <f t="shared" si="16"/>
-        <v>0.10196180782113184</v>
+        <v>8.3975643594882077E-2</v>
       </c>
       <c r="AA30" s="32">
         <f t="shared" si="16"/>
-        <v>0.12866546977857571</v>
+        <v>9.2901968650600339E-2</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5615,19 +5582,19 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="W31" s="34">
-        <v>17.48</v>
+        <v>17.21</v>
       </c>
       <c r="X31" s="34">
-        <v>23.99</v>
+        <v>23.7</v>
       </c>
       <c r="Y31" s="34">
-        <v>34.58</v>
+        <v>33.25</v>
       </c>
       <c r="Z31" s="34">
-        <v>46.69</v>
+        <v>43.39</v>
       </c>
       <c r="AA31" s="34">
-        <v>72.8</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10046,7 +10013,7 @@
       </c>
       <c r="AD94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10270,7 +10237,7 @@
       </c>
       <c r="AD97" s="45">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10688475</v>
+        <v>0.106848</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10492,7 +10459,7 @@
       </c>
       <c r="AD100" s="45">
         <f>AD99/AD103</f>
-        <v>1.1197111145324507E-2</v>
+        <v>1.1875623866156131E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10567,7 +10534,7 @@
       </c>
       <c r="AD101" s="29" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57930540000</v>
+        <v>54583203211</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10642,7 +10609,7 @@
       </c>
       <c r="AD102" s="45">
         <f>AD101/AD103</f>
-        <v>0.98880288885467549</v>
+        <v>0.98812437613384385</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10717,7 +10684,7 @@
       </c>
       <c r="AD103" s="48">
         <f>AD99+AD101</f>
-        <v>58586540000</v>
+        <v>55239203211</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10882,23 +10849,23 @@
       </c>
       <c r="W105" s="27">
         <f>V105*(1+$AD$106)</f>
-        <v>3340738764.2721925</v>
+        <v>3483611286.7668343</v>
       </c>
       <c r="X105" s="27">
         <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
-        <v>4074736275.9323201</v>
+        <v>4430715359.7032175</v>
       </c>
       <c r="Y105" s="27">
         <f t="shared" si="22"/>
-        <v>4970001215.289875</v>
+        <v>5635312605.9968395</v>
       </c>
       <c r="Z105" s="27">
         <f t="shared" si="22"/>
-        <v>6061965832.2135572</v>
+        <v>7167408779.2076206</v>
       </c>
       <c r="AA105" s="27">
         <f t="shared" si="22"/>
-        <v>7393847236.4702053</v>
+        <v>9116042391.9686432</v>
       </c>
       <c r="AB105" s="28" t="s">
         <v>163</v>
@@ -10908,7 +10875,7 @@
       </c>
       <c r="AD105" s="50">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.10907373645425278</v>
+        <v>0.10917006916474847</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11019,7 +10986,7 @@
       </c>
       <c r="AD106" s="52">
         <f>(SUM(W4:AA4)/5)</f>
-        <v>0.21971113680301047</v>
+        <v>0.27187421183704974</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11095,7 +11062,7 @@
       <c r="Z107" s="28"/>
       <c r="AA107" s="29">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>90143411450.563644</v>
+        <v>111012662155.2216</v>
       </c>
       <c r="AB107" s="30" t="s">
         <v>146</v>
@@ -11110,23 +11077,23 @@
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="W108" s="29">
         <f t="shared" ref="W108:Z108" si="24">W107+W105</f>
-        <v>3340738764.2721925</v>
+        <v>3483611286.7668343</v>
       </c>
       <c r="X108" s="29">
         <f t="shared" si="24"/>
-        <v>4074736275.9323201</v>
+        <v>4430715359.7032175</v>
       </c>
       <c r="Y108" s="29">
         <f t="shared" si="24"/>
-        <v>4970001215.289875</v>
+        <v>5635312605.9968395</v>
       </c>
       <c r="Z108" s="29">
         <f t="shared" si="24"/>
-        <v>6061965832.2135572</v>
+        <v>7167408779.2076206</v>
       </c>
       <c r="AA108" s="29">
         <f>AA107+AA105</f>
-        <v>97537258687.033844</v>
+        <v>120128704547.19025</v>
       </c>
       <c r="AB108" s="30" t="s">
         <v>143</v>
@@ -11136,7 +11103,7 @@
       </c>
       <c r="AD108" s="52">
         <f>AD105</f>
-        <v>0.10907373645425278</v>
+        <v>0.10917006916474847</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11151,7 +11118,7 @@
       </c>
       <c r="X110" s="29">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>72100290645.804565</v>
+        <v>87165130310.220886</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11178,7 +11145,7 @@
       </c>
       <c r="X113" s="29">
         <f>X110+X111-X112</f>
-        <v>75693290645.804565</v>
+        <v>90758130310.220886</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11196,7 +11163,7 @@
       </c>
       <c r="X115" s="58">
         <f>X113/X114</f>
-        <v>1361.9666899580884</v>
+        <v>1633.0317954309689</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11205,7 +11172,7 @@
       </c>
       <c r="X116" s="59" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1153.82</v>
+        <v>1087.1500000000001</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11214,7 +11181,7 @@
       </c>
       <c r="X117" s="60">
         <f>X115/X116-1</f>
-        <v>0.1803978869824483</v>
+        <v>0.50212187410290099</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7727BD-76DF-1D41-8C1F-88BF1815B6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80133D30-0F82-FC46-901C-E376DDC44C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2250,6 +2250,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2261,7 +2262,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2280,6 +2281,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2406,10 +2408,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1365.6398999999999</v>
-    <v>615.54</v>
-    <v>1.5249999999999999</v>
-    <v>-66.67</v>
-    <v>-5.7782E-2</v>
+    <v>720.84079999999994</v>
+    <v>1.52</v>
+    <v>-16.59</v>
+    <v>-1.3843000000000001E-2</v>
+    <v>-0.73</v>
+    <v>-6.177E-4</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2417,24 +2421,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1109.489</v>
+    <v>1212.5550000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999640370312</v>
+    <v>45132.973753553124</v>
     <v>0</v>
-    <v>1063.02</v>
-    <v>54583203211</v>
+    <v>1181.1600000000001</v>
+    <v>59337361802</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1108.04</v>
-    <v>88.865600000000001</v>
-    <v>1153.82</v>
-    <v>1087.1500000000001</v>
+    <v>1201.51</v>
+    <v>97.961799999999997</v>
+    <v>1198.43</v>
+    <v>1181.8399999999999</v>
+    <v>1181.1099999999999</v>
     <v>50207610</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>20</v>
-    <v>484304</v>
+    <v>474891</v>
+    <v>588915</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2466,6 +2471,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2486,6 +2493,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2502,7 +2510,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2513,13 +2521,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2585,13 +2596,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2636,6 +2653,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2643,6 +2663,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3007,7 +3030,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z95" sqref="Z95"/>
+      <selection pane="bottomRight" activeCell="Y96" sqref="Y96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4360,15 +4383,15 @@
       </c>
       <c r="AC16" s="36">
         <f>AD101/V3</f>
-        <v>5.1801464563917623</v>
+        <v>5.6313335676188672</v>
       </c>
       <c r="AD16" s="36">
         <f>AD101/V28</f>
-        <v>113.24316018879668</v>
+        <v>123.10655975518672</v>
       </c>
       <c r="AE16" s="37">
         <f>AD101/V107</f>
-        <v>21.956236207160096</v>
+        <v>23.868608930812549</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4607,15 +4630,15 @@
       </c>
       <c r="AC19" s="36">
         <f>AD101/W3</f>
-        <v>4.0256068449738178</v>
+        <v>4.3762343684637512</v>
       </c>
       <c r="AD19" s="36">
         <f>AD101/W28</f>
-        <v>63.175003716435185</v>
+        <v>68.677502085648143</v>
       </c>
       <c r="AE19" s="37">
         <f>AD101/W106</f>
-        <v>180.02375729221635</v>
+        <v>195.70369987467018</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4892,7 +4915,7 @@
       </c>
       <c r="AE22" s="41">
         <f>V107/AD101</f>
-        <v>4.554514674395297E-2</v>
+        <v>4.1896031850816258E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10013,7 +10036,7 @@
       </c>
       <c r="AD94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10088,7 +10111,7 @@
       </c>
       <c r="AD95" s="47" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5249999999999999</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10237,7 +10260,7 @@
       </c>
       <c r="AD97" s="45">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.106848</v>
+        <v>0.10733760000000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10459,7 +10482,7 @@
       </c>
       <c r="AD100" s="45">
         <f>AD99/AD103</f>
-        <v>1.1875623866156131E-2</v>
+        <v>1.0934543094368332E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10534,7 +10557,7 @@
       </c>
       <c r="AD101" s="29" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>54583203211</v>
+        <v>59337361802</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10609,7 +10632,7 @@
       </c>
       <c r="AD102" s="45">
         <f>AD101/AD103</f>
-        <v>0.98812437613384385</v>
+        <v>0.98906545690563163</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10684,7 +10707,7 @@
       </c>
       <c r="AD103" s="48">
         <f>AD99+AD101</f>
-        <v>55239203211</v>
+        <v>59993361802</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10875,7 +10898,7 @@
       </c>
       <c r="AD105" s="50">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.10917006916474847</v>
+        <v>0.10947030383619798</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11062,7 +11085,7 @@
       <c r="Z107" s="28"/>
       <c r="AA107" s="29">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>111012662155.2216</v>
+        <v>110618087391.84041</v>
       </c>
       <c r="AB107" s="30" t="s">
         <v>146</v>
@@ -11093,7 +11116,7 @@
       </c>
       <c r="AA108" s="29">
         <f>AA107+AA105</f>
-        <v>120128704547.19025</v>
+        <v>119734129783.80905</v>
       </c>
       <c r="AB108" s="30" t="s">
         <v>143</v>
@@ -11103,7 +11126,7 @@
       </c>
       <c r="AD108" s="52">
         <f>AD105</f>
-        <v>0.10917006916474847</v>
+        <v>0.10947030383619798</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11118,7 +11141,7 @@
       </c>
       <c r="X110" s="29">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>87165130310.220886</v>
+        <v>86822366423.25209</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11145,7 +11168,7 @@
       </c>
       <c r="X113" s="29">
         <f>X110+X111-X112</f>
-        <v>90758130310.220886</v>
+        <v>90415366423.25209</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11163,7 +11186,7 @@
       </c>
       <c r="X115" s="58">
         <f>X113/X114</f>
-        <v>1633.0317954309689</v>
+        <v>1626.8643664212232</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11172,7 +11195,7 @@
       </c>
       <c r="X116" s="59" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1087.1500000000001</v>
+        <v>1181.8399999999999</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11181,7 +11204,7 @@
       </c>
       <c r="X117" s="60">
         <f>X115/X116-1</f>
-        <v>0.50212187410290099</v>
+        <v>0.37655212754791112</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80133D30-0F82-FC46-901C-E376DDC44C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E17EB-B509-AA43-8C97-BADC8530DFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -573,7 +573,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,12 +938,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -945,7 +952,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,54 +961,109 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,19 +1115,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MELI</a:t>
+              <a:t>MercadoLibre</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46324121600574203"/>
-          <c:y val="1.9464718537274935E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1100,15 +1153,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5044916211048122E-2"/>
-          <c:y val="0.10495808784599474"/>
-          <c:w val="0.85106157967046214"/>
-          <c:h val="0.75649586021368953"/>
+          <c:x val="9.9223880597014924E-2"/>
+          <c:y val="0.16890430246614563"/>
+          <c:w val="0.83046102819237144"/>
+          <c:h val="0.59934237078434949"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1157,12 +1210,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$V$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AA$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1700000</c:v>
                 </c:pt>
@@ -1225,13 +1365,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10537000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13870000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16857000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20240000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24060000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26341000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4A3-BC45-A37D-B13D3236C864}"/>
+              <c16:uniqueId val="{00000000-C2EC-534F-B22B-4EE8047B4FF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1240,11 +1395,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1282,81 +1437,183 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$V$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-1900000</c:v>
+                  <c:v>-2500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2400000</c:v>
+                  <c:v>-3200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2206018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2557271</c:v>
+                  <c:v>2354136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4331860</c:v>
+                  <c:v>1072083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16728040</c:v>
+                  <c:v>9692940</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41224004</c:v>
+                  <c:v>18811661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59964104</c:v>
+                  <c:v>33208793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84388981</c:v>
+                  <c:v>56025019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119356682</c:v>
+                  <c:v>76780053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150216349</c:v>
+                  <c:v>101247298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177325113</c:v>
+                  <c:v>117507438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150329854</c:v>
+                  <c:v>72580551</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>194091000</c:v>
+                  <c:v>105789000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239955000</c:v>
+                  <c:v>136366000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>121460000</c:v>
+                  <c:v>13780000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36589000</c:v>
+                  <c:v>-36585000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31950000</c:v>
+                  <c:v>-171999000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>292997000</c:v>
+                  <c:v>-707000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>664752000</c:v>
+                  <c:v>83304000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1504000000</c:v>
+                  <c:v>482000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1053000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1458000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1923000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2719000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3728000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C4A3-BC45-A37D-B13D3236C864}"/>
+              <c16:uniqueId val="{00000001-C2EC-534F-B22B-4EE8047B4FF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1365,11 +1622,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$107</c:f>
+              <c:f>'Sheet 1'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Levered FCF</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1407,12 +1664,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
+              <c:f>'Sheet 1'!$B$105:$AA$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1423,65 +1767,80 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1434001</c:v>
+                  <c:v>1729471.0820512821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3714434</c:v>
+                  <c:v>6101130.3051282056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3675022</c:v>
+                  <c:v>5113243.0769230779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49583912</c:v>
+                  <c:v>61323972.053846151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44947137</c:v>
+                  <c:v>48713118.817948721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54265960</c:v>
+                  <c:v>48796375.366666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70220764</c:v>
+                  <c:v>53434728.448717952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121752989</c:v>
+                  <c:v>100507686.15641026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28298991</c:v>
+                  <c:v>-5697910.8076923043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161510379</c:v>
+                  <c:v>100713904.34102565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157094000</c:v>
+                  <c:v>79381989.743589744</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112889000</c:v>
+                  <c:v>45596323.076923072</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194126000</c:v>
+                  <c:v>73736828.205128208</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133153000</c:v>
+                  <c:v>170592687.17948717</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>314221000</c:v>
+                  <c:v>196800356.41025639</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>935411000</c:v>
+                  <c:v>709679107.69230771</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>355547000</c:v>
+                  <c:v>-96967146.153846145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2486000000</c:v>
+                  <c:v>2738958974.3589745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3295460001.9850879</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3965030774.9590306</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4770644777.0272017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5739943238.8547049</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6906183529.7249966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C4A3-BC45-A37D-B13D3236C864}"/>
+              <c16:uniqueId val="{00000002-C2EC-534F-B22B-4EE8047B4FF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,13 +1852,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1553416992"/>
-        <c:axId val="1553341136"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1643472992"/>
+        <c:axId val="1653249072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553416992"/>
+        <c:axId val="1643472992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1886,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1539,7 +1898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1553341136"/>
+        <c:crossAx val="1653249072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553341136"/>
+        <c:axId val="1653249072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1596,7 +1955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1553416992"/>
+        <c:crossAx val="1643472992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1614,10 +1973,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34746463532279426"/>
-          <c:y val="0.92538848121211892"/>
-          <c:w val="0.30507072935441149"/>
-          <c:h val="4.4333067729897827E-2"/>
+          <c:x val="0.33459077316827934"/>
+          <c:y val="0.88851162023271746"/>
+          <c:w val="0.33347185333176638"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1724,7 +2083,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1962,7 +2321,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2197,22 +2555,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>1571626</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4DF39E-3023-91AA-F01E-353B25F2965C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD46E8D-9E3F-1FA9-9972-CD28E9B7DA24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,38 +2598,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2407,13 +2765,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1365.6398999999999</v>
-    <v>720.84079999999994</v>
-    <v>1.52</v>
-    <v>-16.59</v>
-    <v>-1.3843000000000001E-2</v>
-    <v>-0.73</v>
-    <v>-6.177E-4</v>
+    <v>1451.56</v>
+    <v>792.45699999999999</v>
+    <v>1.5348999999999999</v>
+    <v>-31.74</v>
+    <v>-2.6195E-2</v>
+    <v>-2.97</v>
+    <v>-2.5169999999999997E-3</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2421,25 +2779,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1212.5550000000001</v>
+    <v>1228.865</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.973753553124</v>
+    <v>45218.999481689061</v>
     <v>0</v>
-    <v>1181.1600000000001</v>
-    <v>59337361802</v>
+    <v>1171.17</v>
+    <v>59107346893</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1201.51</v>
-    <v>97.961799999999997</v>
-    <v>1198.43</v>
-    <v>1181.8399999999999</v>
-    <v>1181.1099999999999</v>
-    <v>50207610</v>
+    <v>1220.6500000000001</v>
+    <v>81.249399999999994</v>
+    <v>1211.7</v>
+    <v>1179.96</v>
+    <v>1176.99</v>
+    <v>50092670</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>474891</v>
-    <v>588915</v>
+    <v>492624</v>
+    <v>328649</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2604,9 +2962,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3024,13 +3382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE118"/>
+  <dimension ref="A1:AE119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y96" sqref="Y96"/>
+      <selection pane="bottomRight" activeCell="X124" sqref="X124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3274,19 +3632,19 @@
         <v>10537000000</v>
       </c>
       <c r="W3" s="24">
-        <v>13559000000</v>
+        <v>13870000000</v>
       </c>
       <c r="X3" s="24">
-        <v>16300000000</v>
+        <v>16857000000</v>
       </c>
       <c r="Y3" s="24">
-        <v>19739000000</v>
+        <v>20240000000</v>
       </c>
       <c r="Z3" s="24">
-        <v>25948000000</v>
+        <v>24060000000</v>
       </c>
       <c r="AA3" s="24">
-        <v>34897000000</v>
+        <v>26341000000</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>108</v>
@@ -3306,105 +3664,105 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="42">
         <f>(C3/B3)-1</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="42">
         <f>(D3/C3)-1</f>
         <v>1.2613092857142858</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="42">
         <f>(E3/D3)-1</f>
         <v>1.2308249519162886</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="42">
         <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
         <v>0.84281363641786067</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>0.63519316297370154</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>0.60963831395032009</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="42">
         <f t="shared" si="0"/>
         <v>0.26142399700137098</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="42">
         <f t="shared" si="0"/>
         <v>0.2538253465541549</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="42">
         <f t="shared" si="0"/>
         <v>0.37937217778020549</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="42">
         <f t="shared" si="0"/>
         <v>0.24978912485422033</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="42">
         <f t="shared" si="0"/>
         <v>0.26497007263038408</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="42">
         <f t="shared" si="0"/>
         <v>0.17761792800773812</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="42">
         <f t="shared" si="0"/>
         <v>0.17115514119066821</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="42">
         <f t="shared" si="0"/>
         <v>0.29550315285598128</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="42">
         <f t="shared" si="0"/>
         <v>0.65573380262341363</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="42">
         <f t="shared" si="0"/>
         <v>2.9724732582549818E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="42">
         <f t="shared" si="0"/>
         <v>0.59504686198688161</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="42">
         <f t="shared" si="0"/>
         <v>0.73036657878669908</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="42">
         <f t="shared" si="0"/>
         <v>0.77915471760793165</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="42">
         <f t="shared" si="0"/>
         <v>0.49050649071230712</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28679889911739576</v>
+        <v>0.31631394134953017</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20215355114683975</v>
+        <v>0.21535688536409525</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21098159509202463</v>
+        <v>0.2006881414249273</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.31455494199300871</v>
+        <v>0.18873517786561256</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.34488207183597974</v>
+        <v>9.4804655029093965E-2</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -3558,7 +3916,7 @@
       <c r="V6" s="10">
         <v>5163000000</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AB6" s="67" t="s">
         <v>112</v>
       </c>
       <c r="AC6" s="19" t="s">
@@ -3644,16 +4002,16 @@
         <v>0.48998766252253961</v>
       </c>
       <c r="AC7" s="20">
-        <f>V21</f>
-        <v>0.14273512384929296</v>
+        <f>W21</f>
+        <v>0.17476568132660419</v>
       </c>
       <c r="AD7" s="20">
-        <f>V30</f>
-        <v>4.5743570276169689E-2</v>
+        <f>W30</f>
+        <v>7.5919250180245132E-2</v>
       </c>
       <c r="AE7" s="20">
-        <f>V107/V3</f>
-        <v>0.23593053051153079</v>
+        <f>W107/W3</f>
+        <v>4.3914924297043981E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4381,17 +4739,17 @@
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>2.4111484784167882E-2</v>
       </c>
-      <c r="AC16" s="36">
-        <f>AD101/V3</f>
-        <v>5.6313335676188672</v>
-      </c>
-      <c r="AD16" s="36">
-        <f>AD101/V28</f>
-        <v>123.10655975518672</v>
-      </c>
-      <c r="AE16" s="37">
-        <f>AD101/V107</f>
-        <v>23.868608930812549</v>
+      <c r="AC16" s="32">
+        <f>AD102/V3</f>
+        <v>5.6095043079624185</v>
+      </c>
+      <c r="AD16" s="32">
+        <f>AD102/V28</f>
+        <v>122.62935040041494</v>
+      </c>
+      <c r="AE16" s="33">
+        <f>AD102/V107</f>
+        <v>23.776084832260661</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4609,36 +4967,36 @@
       <c r="V19" s="10">
         <v>1504000000</v>
       </c>
-      <c r="W19" s="31">
-        <v>2057000000</v>
-      </c>
-      <c r="X19" s="31">
-        <v>2590000000</v>
-      </c>
-      <c r="Y19" s="31">
-        <v>3469000000</v>
-      </c>
-      <c r="Z19" s="31">
-        <v>4574000000</v>
-      </c>
-      <c r="AA19" s="31">
-        <v>5847000000</v>
+      <c r="W19" s="27">
+        <v>2424000000</v>
+      </c>
+      <c r="X19" s="27">
+        <v>2934000000</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>3740000000</v>
+      </c>
+      <c r="Z19" s="27">
+        <v>4838000000</v>
+      </c>
+      <c r="AA19" s="27">
+        <v>5581000000</v>
       </c>
       <c r="AB19" s="26">
         <f>V40-V56-V61</f>
         <v>3593000000</v>
       </c>
-      <c r="AC19" s="36">
-        <f>AD101/W3</f>
-        <v>4.3762343684637512</v>
-      </c>
-      <c r="AD19" s="36">
-        <f>AD101/W28</f>
-        <v>68.677502085648143</v>
-      </c>
-      <c r="AE19" s="37">
-        <f>AD101/W106</f>
-        <v>195.70369987467018</v>
+      <c r="AC19" s="32">
+        <f>AD102/W3</f>
+        <v>4.261524649819755</v>
+      </c>
+      <c r="AD19" s="32">
+        <f>AD102/W28</f>
+        <v>56.132333231718896</v>
+      </c>
+      <c r="AE19" s="33">
+        <f>AD102/W105</f>
+        <v>17.935992807497428</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,23 +5086,23 @@
       </c>
       <c r="W20" s="16">
         <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
-        <v>0.36768617021276606</v>
+        <v>0.61170212765957444</v>
       </c>
       <c r="X20" s="16">
         <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
-        <v>0.25911521633446766</v>
+        <v>0.21039603960396036</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
-        <v>0.33938223938223944</v>
+        <v>0.27471029311520101</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
-        <v>0.31853560103776313</v>
+        <v>0.29358288770053487</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
-        <v>0.27831219938784435</v>
+        <v>0.15357585779247618</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -4815,31 +5173,34 @@
         <f>V19/V3</f>
         <v>0.14273512384929296</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="31">
         <f t="shared" ref="W21:AA21" si="9">W19/W3</f>
-        <v>0.15170735304963492</v>
-      </c>
-      <c r="X21" s="35">
+        <v>0.17476568132660419</v>
+      </c>
+      <c r="X21" s="31">
         <f t="shared" si="9"/>
-        <v>0.15889570552147239</v>
-      </c>
-      <c r="Y21" s="35">
+        <v>0.17405232247730912</v>
+      </c>
+      <c r="Y21" s="31">
         <f t="shared" si="9"/>
-        <v>0.1757434520492426</v>
-      </c>
-      <c r="Z21" s="35">
+        <v>0.18478260869565216</v>
+      </c>
+      <c r="Z21" s="31">
         <f t="shared" si="9"/>
-        <v>0.17627562817943579</v>
-      </c>
-      <c r="AA21" s="35">
+        <v>0.20108063175394847</v>
+      </c>
+      <c r="AA21" s="31">
         <f t="shared" si="9"/>
-        <v>0.16755021921655155</v>
+        <v>0.21187502372726927</v>
+      </c>
+      <c r="AC21" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="AD21" s="18" t="s">
         <v>165</v>
       </c>
       <c r="AE21" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4909,13 +5270,17 @@
       <c r="V22" s="10">
         <v>1034000000</v>
       </c>
-      <c r="AD22" s="40">
-        <f>(-1*V98)/AD101</f>
+      <c r="AC22" s="17">
+        <f>SUM(W29:AA29)/5</f>
+        <v>0.53464431989700145</v>
+      </c>
+      <c r="AD22" s="35">
+        <f>(-1*V98)/AD102</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="41">
-        <f>V107/AD101</f>
-        <v>4.1896031850816258E-2</v>
+      <c r="AE22" s="36">
+        <f>W107/AD102</f>
+        <v>1.030497953329952E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5326,20 +5691,20 @@
       <c r="V28" s="11">
         <v>482000000</v>
       </c>
-      <c r="W28" s="33">
-        <v>864000000</v>
-      </c>
-      <c r="X28" s="33">
-        <v>1190000000</v>
-      </c>
-      <c r="Y28" s="33">
-        <v>1669000000</v>
-      </c>
-      <c r="Z28" s="33">
-        <v>2179000000</v>
-      </c>
-      <c r="AA28" s="33">
-        <v>3242000000</v>
+      <c r="W28" s="29">
+        <v>1053000000</v>
+      </c>
+      <c r="X28" s="29">
+        <v>1458000000</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>1923000000</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>2719000000</v>
+      </c>
+      <c r="AA28" s="29">
+        <v>3728000000</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5429,23 +5794,23 @@
       </c>
       <c r="W29" s="16">
         <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
-        <v>0.79253112033195028</v>
+        <v>1.1846473029045641</v>
       </c>
       <c r="X29" s="16">
         <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
-        <v>0.37731481481481488</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
-        <v>0.40252100840336125</v>
+        <v>0.31893004115226331</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
-        <v>0.30557219892150989</v>
+        <v>0.4139365574622984</v>
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
-        <v>0.48783845800826064</v>
+        <v>0.37109231335049642</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5516,25 +5881,25 @@
         <f>V28/V3</f>
         <v>4.5743570276169689E-2</v>
       </c>
-      <c r="W30" s="32">
+      <c r="W30" s="28">
         <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
-        <v>6.372151338594291E-2</v>
-      </c>
-      <c r="X30" s="32">
+        <v>7.5919250180245132E-2</v>
+      </c>
+      <c r="X30" s="28">
         <f t="shared" si="16"/>
-        <v>7.3006134969325148E-2</v>
-      </c>
-      <c r="Y30" s="32">
+        <v>8.6492258408969569E-2</v>
+      </c>
+      <c r="Y30" s="28">
         <f t="shared" si="16"/>
-        <v>8.4553422159177258E-2</v>
-      </c>
-      <c r="Z30" s="32">
+        <v>9.5009881422924908E-2</v>
+      </c>
+      <c r="Z30" s="28">
         <f t="shared" si="16"/>
-        <v>8.3975643594882077E-2</v>
-      </c>
-      <c r="AA30" s="32">
+        <v>0.1130091438071488</v>
+      </c>
+      <c r="AA30" s="28">
         <f t="shared" si="16"/>
-        <v>9.2901968650600339E-2</v>
+        <v>0.14152841577768499</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5604,20 +5969,20 @@
       <c r="V31" s="12">
         <v>9.7200000000000006</v>
       </c>
-      <c r="W31" s="34">
-        <v>17.21</v>
-      </c>
-      <c r="X31" s="34">
-        <v>23.7</v>
-      </c>
-      <c r="Y31" s="34">
-        <v>33.25</v>
-      </c>
-      <c r="Z31" s="34">
-        <v>43.39</v>
-      </c>
-      <c r="AA31" s="34">
-        <v>64.56</v>
+      <c r="W31" s="30">
+        <v>21.02</v>
+      </c>
+      <c r="X31" s="30">
+        <v>29.11</v>
+      </c>
+      <c r="Y31" s="30">
+        <v>38.39</v>
+      </c>
+      <c r="Z31" s="30">
+        <v>54.27</v>
+      </c>
+      <c r="AA31" s="30">
+        <v>74.42</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5688,7 +6053,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5755,8 +6120,12 @@
       <c r="V33" s="1">
         <v>49597157</v>
       </c>
+      <c r="W33" s="1" cm="1">
+        <f t="array" ref="W33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>50092670</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5823,8 +6192,12 @@
       <c r="V34" s="1">
         <v>49597157</v>
       </c>
+      <c r="W34" s="1" cm="1">
+        <f t="array" ref="W34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>50092670</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -5834,7 +6207,7 @@
         <v>-0.2651752839320935</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:W35" si="17">(D34-C34)/C34</f>
         <v>0.23956559482020334</v>
       </c>
       <c r="E35" s="22">
@@ -5909,8 +6282,12 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="W35" s="22">
+        <f t="shared" si="17"/>
+        <v>9.9907541071356173E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -5978,7 +6355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -6046,7 +6423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -6114,7 +6491,7 @@
         <v>1910000000</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -6182,7 +6559,7 @@
         <v>2339000000</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -6250,7 +6627,7 @@
         <v>4249000000</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6318,7 +6695,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -6386,7 +6763,7 @@
         <v>152000000</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -6454,7 +6831,7 @@
         <v>6422000000</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -6522,7 +6899,7 @@
         <v>10953000000</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -6590,7 +6967,7 @@
         <v>1649000000</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6658,7 +7035,7 @@
         <v>153000000</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -6726,7 +7103,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -9127,7 +9504,7 @@
         <v>-71000000</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -9194,12 +9571,8 @@
       <c r="V83" s="1">
         <v>114000000</v>
       </c>
-      <c r="AC83" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD83" s="64"/>
     </row>
-    <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -9266,12 +9639,18 @@
       <c r="V84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC84" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD84" s="65"/>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
+      <c r="Y84" s="44"/>
+      <c r="Z84" s="44"/>
+      <c r="AA84" s="44"/>
+      <c r="AB84" s="44"/>
+      <c r="AC84" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD84" s="70"/>
     </row>
-    <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -9338,13 +9717,16 @@
       <c r="V85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC85" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD85" s="43">
-        <f>V17</f>
-        <v>321000000</v>
-      </c>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="44"/>
+      <c r="AA85" s="44"/>
+      <c r="AB85" s="44"/>
+      <c r="AC85" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD85" s="72"/>
     </row>
     <row r="86" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -9413,12 +9795,18 @@
       <c r="V86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC86" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD86" s="43">
-        <f>V56</f>
-        <v>142000000</v>
+      <c r="W86" s="44"/>
+      <c r="X86" s="44"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="44"/>
+      <c r="AA86" s="44"/>
+      <c r="AB86" s="44"/>
+      <c r="AC86" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD86" s="45">
+        <f>V17</f>
+        <v>321000000</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9488,12 +9876,18 @@
       <c r="V87" s="10">
         <v>2940000000</v>
       </c>
-      <c r="AC87" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD87" s="43">
-        <f>V61</f>
-        <v>514000000</v>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="44"/>
+      <c r="AA87" s="44"/>
+      <c r="AB87" s="44"/>
+      <c r="AC87" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD87" s="45">
+        <f>V56</f>
+        <v>142000000</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9563,12 +9957,18 @@
       <c r="V88" s="1">
         <v>-454000000</v>
       </c>
-      <c r="AC88" s="44" t="s">
-        <v>130</v>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="44"/>
+      <c r="AA88" s="44"/>
+      <c r="AB88" s="44"/>
+      <c r="AC88" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="AD88" s="45">
-        <f>AD85/(AD86+AD87)</f>
-        <v>0.48932926829268292</v>
+        <f>V61</f>
+        <v>514000000</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9659,12 +10059,18 @@
         <f t="shared" si="19"/>
         <v>4.3086267438549875E-2</v>
       </c>
-      <c r="AC89" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD89" s="43">
-        <f>V27</f>
-        <v>298000000</v>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="44"/>
+      <c r="Z89" s="44"/>
+      <c r="AA89" s="44"/>
+      <c r="AB89" s="44"/>
+      <c r="AC89" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD89" s="46">
+        <f>AD86/(AD87+AD88)</f>
+        <v>0.48932926829268292</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9734,12 +10140,18 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC90" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD90" s="43">
-        <f>V25</f>
-        <v>780000000</v>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+      <c r="Z90" s="44"/>
+      <c r="AA90" s="44"/>
+      <c r="AB90" s="44"/>
+      <c r="AC90" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD90" s="45">
+        <f>V27</f>
+        <v>298000000</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9809,12 +10221,18 @@
       <c r="V91" s="1">
         <v>-12694000000</v>
       </c>
-      <c r="AC91" s="44" t="s">
-        <v>131</v>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="AD91" s="45">
-        <f>AD89/AD90</f>
-        <v>0.38205128205128203</v>
+        <f>V25</f>
+        <v>780000000</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9884,15 +10302,21 @@
       <c r="V92" s="1">
         <v>11023000000</v>
       </c>
-      <c r="AC92" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD92" s="45">
-        <f>AD88*(1-AD91)</f>
-        <v>0.30238039399624767</v>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="44"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD92" s="46">
+        <f>AD90/AD91</f>
+        <v>0.38205128205128203</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -9959,12 +10383,21 @@
       <c r="V93" s="1">
         <v>-1746000000</v>
       </c>
-      <c r="AC93" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD93" s="65"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="44"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD93" s="46">
+        <f>AD89*(1-AD92)</f>
+        <v>0.30238039399624767</v>
+      </c>
     </row>
-    <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -10031,13 +10464,16 @@
       <c r="V94" s="10">
         <v>-3871000000</v>
       </c>
-      <c r="AC94" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD94" s="46">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="44"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD94" s="72"/>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -10106,12 +10542,18 @@
       <c r="V95" s="1">
         <v>-20000000</v>
       </c>
-      <c r="AC95" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD95" s="47" cm="1">
-        <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.52</v>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
+      <c r="Z95" s="44"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10181,11 +10623,18 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC96" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD96" s="46">
-        <v>8.4000000000000005E-2</v>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="44"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD96" s="48" cm="1">
+        <f t="array" ref="AD96">_FV(A1,"Beta")</f>
+        <v>1.5348999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10255,15 +10704,20 @@
       <c r="V97" s="1">
         <v>-148000000</v>
       </c>
-      <c r="AC97" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD97" s="45">
-        <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10733760000000001</v>
+      <c r="W97" s="44"/>
+      <c r="X97" s="44"/>
+      <c r="Y97" s="44"/>
+      <c r="Z97" s="44"/>
+      <c r="AA97" s="44"/>
+      <c r="AB97" s="44"/>
+      <c r="AC97" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD97" s="47">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -10330,12 +10784,21 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD98" s="65"/>
+      <c r="W98" s="44"/>
+      <c r="X98" s="44"/>
+      <c r="Y98" s="44"/>
+      <c r="Z98" s="44"/>
+      <c r="AA98" s="44"/>
+      <c r="AB98" s="44"/>
+      <c r="AC98" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD98" s="46">
+        <f>(AD95)+((AD96)*(AD97-AD95))</f>
+        <v>0.102710802</v>
+      </c>
     </row>
-    <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -10402,13 +10865,16 @@
       <c r="V99" s="1">
         <v>1084000000</v>
       </c>
-      <c r="AC99" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD99" s="43">
-        <f>AD86+AD87</f>
-        <v>656000000</v>
-      </c>
+      <c r="W99" s="44"/>
+      <c r="X99" s="44"/>
+      <c r="Y99" s="44"/>
+      <c r="Z99" s="44"/>
+      <c r="AA99" s="44"/>
+      <c r="AB99" s="44"/>
+      <c r="AC99" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD99" s="72"/>
     </row>
     <row r="100" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -10477,12 +10943,18 @@
       <c r="V100" s="10">
         <v>916000000</v>
       </c>
-      <c r="AC100" s="44" t="s">
-        <v>140</v>
+      <c r="W100" s="44"/>
+      <c r="X100" s="44"/>
+      <c r="Y100" s="44"/>
+      <c r="Z100" s="44"/>
+      <c r="AA100" s="44"/>
+      <c r="AB100" s="44"/>
+      <c r="AC100" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="AD100" s="45">
-        <f>AD99/AD103</f>
-        <v>1.0934543094368332E-2</v>
+        <f>AD87+AD88</f>
+        <v>656000000</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10552,12 +11024,18 @@
       <c r="V101" s="1">
         <v>-270000000</v>
       </c>
-      <c r="AC101" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD101" s="29" cm="1">
-        <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>59337361802</v>
+      <c r="W101" s="44"/>
+      <c r="X101" s="44"/>
+      <c r="Y101" s="44"/>
+      <c r="Z101" s="44"/>
+      <c r="AA101" s="44"/>
+      <c r="AB101" s="44"/>
+      <c r="AC101" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD101" s="46">
+        <f>AD100/AD104</f>
+        <v>1.0976627550235752E-2</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10627,12 +11105,18 @@
       <c r="V102" s="10">
         <v>-284963000</v>
       </c>
-      <c r="AC102" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD102" s="45">
-        <f>AD101/AD103</f>
-        <v>0.98906545690563163</v>
+      <c r="W102" s="44"/>
+      <c r="X102" s="44"/>
+      <c r="Y102" s="44"/>
+      <c r="Z102" s="44"/>
+      <c r="AA102" s="44"/>
+      <c r="AB102" s="44"/>
+      <c r="AC102" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD102" s="49" cm="1">
+        <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
+        <v>59107346893</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10702,15 +11186,21 @@
       <c r="V103" s="1">
         <v>3647963000</v>
       </c>
-      <c r="AC103" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD103" s="48">
-        <f>AD99+AD101</f>
-        <v>59993361802</v>
+      <c r="W103" s="44"/>
+      <c r="X103" s="44"/>
+      <c r="Y103" s="44"/>
+      <c r="Z103" s="44"/>
+      <c r="AA103" s="44"/>
+      <c r="AB103" s="44"/>
+      <c r="AC103" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD103" s="46">
+        <f>AD102/AD104</f>
+        <v>0.98902337244976424</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -10777,12 +11267,23 @@
       <c r="V104" s="11">
         <v>3363000000</v>
       </c>
-      <c r="AC104" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD104" s="65"/>
+      <c r="W104" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="X104" s="73"/>
+      <c r="Y104" s="73"/>
+      <c r="Z104" s="73"/>
+      <c r="AA104" s="73"/>
+      <c r="AB104" s="44"/>
+      <c r="AC104" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD104" s="50">
+        <f>AD100+AD102</f>
+        <v>59763346893</v>
+      </c>
     </row>
-    <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>162</v>
       </c>
@@ -10791,7 +11292,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:U105" si="21">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:V105" si="21">(C22*(1-$AD$92))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1" t="e">
@@ -10867,153 +11368,156 @@
         <v>-96967146.153846145</v>
       </c>
       <c r="V105" s="1">
-        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <f t="shared" si="21"/>
         <v>2738958974.3589745</v>
       </c>
-      <c r="W105" s="27">
-        <f>V105*(1+$AD$106)</f>
-        <v>3483611286.7668343</v>
-      </c>
-      <c r="X105" s="27">
-        <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
-        <v>4430715359.7032175</v>
-      </c>
-      <c r="Y105" s="27">
-        <f t="shared" si="22"/>
-        <v>5635312605.9968395</v>
-      </c>
-      <c r="Z105" s="27">
-        <f t="shared" si="22"/>
-        <v>7167408779.2076206</v>
-      </c>
-      <c r="AA105" s="27">
-        <f t="shared" si="22"/>
-        <v>9116042391.9686432</v>
-      </c>
-      <c r="AB105" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC105" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD105" s="50">
-        <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.10947030383619798</v>
-      </c>
+      <c r="W105" s="51">
+        <f>V105*(1+$AD$107)</f>
+        <v>3295460001.9850879</v>
+      </c>
+      <c r="X105" s="51">
+        <f>W105*(1+$AD$107)</f>
+        <v>3965030774.9590306</v>
+      </c>
+      <c r="Y105" s="51">
+        <f>X105*(1+$AD$107)</f>
+        <v>4770644777.0272017</v>
+      </c>
+      <c r="Z105" s="51">
+        <f>Y105*(1+$AD$107)</f>
+        <v>5739943238.8547049</v>
+      </c>
+      <c r="AA105" s="51">
+        <f>Z105*(1+$AD$107)</f>
+        <v>6906183529.7249966</v>
+      </c>
+      <c r="AB105" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC105" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD105" s="72"/>
     </row>
-    <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:V106" si="23">(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="22">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.5902590026087848</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-1.0610499473136414E-2</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>12.492140183106386</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-9.3513698556096148E-2</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.20732851126869334</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.29401127336547628</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.73386021547700619</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.7675704618635687</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.7072840158859375</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-2.7344242687957543E-2</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.28139203279565106</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.71961838620237573</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.31408981795328805</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.3598491960376409</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.9769207023082482</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.61990290898866918</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.9920432460406081</v>
       </c>
-      <c r="W106" s="39">
-        <v>303200000</v>
-      </c>
-      <c r="X106" s="39">
-        <v>537500000</v>
-      </c>
-      <c r="Y106" s="39">
-        <v>857300000</v>
-      </c>
-      <c r="Z106" s="39">
-        <v>1101000000</v>
-      </c>
-      <c r="AA106" s="39">
-        <v>1329000000</v>
-      </c>
-      <c r="AB106" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC106" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD106" s="52">
-        <f>(SUM(W4:AA4)/5)</f>
-        <v>0.27187421183704974</v>
+      <c r="W106" s="53">
+        <f>(W107/V107)-1</f>
+        <v>-0.7549879324215607</v>
+      </c>
+      <c r="X106" s="53">
+        <f>(X107/W107)-1</f>
+        <v>0.42669512395337383</v>
+      </c>
+      <c r="Y106" s="53">
+        <f>(Y107/X107)-1</f>
+        <v>0.40736478711162261</v>
+      </c>
+      <c r="Z106" s="53">
+        <f>(Z107/Y107)-1</f>
+        <v>0.51022076860179877</v>
+      </c>
+      <c r="AA106" s="53">
+        <f>(AA107/Z107)-1</f>
+        <v>0.18624796968056301</v>
+      </c>
+      <c r="AB106" s="54">
+        <f>SUM(W106:AA106)/5</f>
+        <v>0.15510814338515949</v>
+      </c>
+      <c r="AC106" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD106" s="55">
+        <f>(AD101*AD93)+(AD103*AD98)</f>
+        <v>0.10490250074445034</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="34" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -11079,151 +11583,239 @@
       <c r="V107" s="1">
         <v>2486000000</v>
       </c>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="29">
-        <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>110618087391.84041</v>
-      </c>
-      <c r="AB107" s="30" t="s">
+      <c r="W107" s="56">
+        <v>609100000</v>
+      </c>
+      <c r="X107" s="56">
+        <v>869000000</v>
+      </c>
+      <c r="Y107" s="56">
+        <v>1223000000</v>
+      </c>
+      <c r="Z107" s="56">
+        <v>1847000000</v>
+      </c>
+      <c r="AA107" s="56">
+        <v>2191000000</v>
+      </c>
+      <c r="AB107" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC107" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD107" s="40">
+        <f>(SUM(W4:AA4)/5)</f>
+        <v>0.20317976020665185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.2">
+      <c r="W108" s="52"/>
+      <c r="X108" s="52"/>
+      <c r="Y108" s="52"/>
+      <c r="Z108" s="52"/>
+      <c r="AA108" s="49">
+        <f>AA105*(1+AD108)/(AD109-AD108)</f>
+        <v>88593448916.05014</v>
+      </c>
+      <c r="AB108" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AC107" s="53" t="s">
+      <c r="AC108" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="AD107" s="54">
+      <c r="AD108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="29">
-        <f t="shared" ref="W108:Z108" si="24">W107+W105</f>
-        <v>3483611286.7668343</v>
-      </c>
-      <c r="X108" s="29">
-        <f t="shared" si="24"/>
-        <v>4430715359.7032175</v>
-      </c>
-      <c r="Y108" s="29">
-        <f t="shared" si="24"/>
-        <v>5635312605.9968395</v>
-      </c>
-      <c r="Z108" s="29">
-        <f t="shared" si="24"/>
-        <v>7167408779.2076206</v>
-      </c>
-      <c r="AA108" s="29">
-        <f>AA107+AA105</f>
-        <v>119734129783.80905</v>
-      </c>
-      <c r="AB108" s="30" t="s">
+    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.2">
+      <c r="W109" s="49">
+        <f>W108+W105</f>
+        <v>3295460001.9850879</v>
+      </c>
+      <c r="X109" s="49">
+        <f>X108+X105</f>
+        <v>3965030774.9590306</v>
+      </c>
+      <c r="Y109" s="49">
+        <f>Y108+Y105</f>
+        <v>4770644777.0272017</v>
+      </c>
+      <c r="Z109" s="49">
+        <f>Z108+Z105</f>
+        <v>5739943238.8547049</v>
+      </c>
+      <c r="AA109" s="49">
+        <f>AA108+AA105</f>
+        <v>95499632445.775131</v>
+      </c>
+      <c r="AB109" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="AC108" s="55" t="s">
+      <c r="AC109" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="AD108" s="52">
-        <f>AD105</f>
-        <v>0.10947030383619798</v>
+      <c r="AD109" s="40">
+        <f>AD106</f>
+        <v>0.10490250074445034</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="62" t="s">
+    <row r="110" spans="1:30" ht="19" x14ac:dyDescent="0.2">
+      <c r="W110" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="X109" s="62"/>
+      <c r="X110" s="71"/>
+      <c r="Y110" s="44"/>
+      <c r="Z110" s="44"/>
+      <c r="AA110" s="44"/>
+      <c r="AB110" s="44"/>
+      <c r="AC110" s="44"/>
+      <c r="AD110" s="44"/>
     </row>
-    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="56" t="s">
+    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W111" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="X110" s="29">
-        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>86822366423.25209</v>
-      </c>
+      <c r="X111" s="49">
+        <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
+        <v>71612392990.997559</v>
+      </c>
+      <c r="Y111" s="44"/>
+      <c r="Z111" s="44"/>
+      <c r="AA111" s="44"/>
+      <c r="AB111" s="44"/>
+      <c r="AC111" s="44"/>
+      <c r="AD111" s="44"/>
     </row>
-    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="56" t="s">
+    <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W112" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="X111" s="29">
+      <c r="X112" s="49">
         <f>V40</f>
         <v>4249000000</v>
       </c>
+      <c r="Y112" s="44"/>
+      <c r="Z112" s="44"/>
+      <c r="AA112" s="44"/>
+      <c r="AB112" s="44"/>
+      <c r="AC112" s="44"/>
+      <c r="AD112" s="44"/>
     </row>
-    <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="56" t="s">
+    <row r="113" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W113" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="X112" s="29">
-        <f>AD99</f>
+      <c r="X113" s="49">
+        <f>AD100</f>
         <v>656000000</v>
       </c>
+      <c r="Y113" s="44"/>
+      <c r="Z113" s="44"/>
+      <c r="AA113" s="44"/>
+      <c r="AB113" s="44"/>
+      <c r="AC113" s="44"/>
+      <c r="AD113" s="44"/>
     </row>
-    <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="56" t="s">
+    <row r="114" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W114" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="X113" s="29">
-        <f>X110+X111-X112</f>
-        <v>90415366423.25209</v>
-      </c>
+      <c r="X114" s="49">
+        <f>X111+X112-X113</f>
+        <v>75205392990.997559</v>
+      </c>
+      <c r="Y114" s="44"/>
+      <c r="Z114" s="44"/>
+      <c r="AA114" s="44"/>
+      <c r="AB114" s="44"/>
+      <c r="AC114" s="44"/>
+      <c r="AD114" s="44"/>
     </row>
-    <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="56" t="s">
+    <row r="115" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W115" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="X114" s="56">
+      <c r="X115" s="61">
         <f>V34*(1+(5*AB16))</f>
         <v>55576462.481717423</v>
       </c>
+      <c r="Y115" s="44"/>
+      <c r="Z115" s="44"/>
+      <c r="AA115" s="44"/>
+      <c r="AB115" s="44"/>
+      <c r="AC115" s="44"/>
+      <c r="AD115" s="44"/>
     </row>
-    <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="57" t="s">
+    <row r="116" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W116" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="X115" s="58">
-        <f>X113/X114</f>
-        <v>1626.8643664212232</v>
-      </c>
+      <c r="X116" s="63">
+        <f>X114/X115</f>
+        <v>1353.1878358709375</v>
+      </c>
+      <c r="Y116" s="44"/>
+      <c r="Z116" s="44"/>
+      <c r="AA116" s="44"/>
+      <c r="AB116" s="44"/>
+      <c r="AC116" s="44"/>
+      <c r="AD116" s="44"/>
     </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="56" t="s">
+    <row r="117" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W117" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="X116" s="59" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>1181.8399999999999</v>
-      </c>
+      <c r="X117" s="64" cm="1">
+        <f t="array" ref="X117">_FV(A1,"Price")</f>
+        <v>1179.96</v>
+      </c>
+      <c r="Y117" s="44"/>
+      <c r="Z117" s="44"/>
+      <c r="AA117" s="44"/>
+      <c r="AB117" s="44"/>
+      <c r="AC117" s="44"/>
+      <c r="AD117" s="44"/>
     </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="57" t="s">
+    <row r="118" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W118" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="X117" s="60">
-        <f>X115/X116-1</f>
-        <v>0.37655212754791112</v>
-      </c>
+      <c r="X118" s="65">
+        <f>X116/X117-1</f>
+        <v>0.14680822728816012</v>
+      </c>
+      <c r="Y118" s="44"/>
+      <c r="Z118" s="44"/>
+      <c r="AA118" s="44"/>
+      <c r="AB118" s="44"/>
+      <c r="AC118" s="44"/>
+      <c r="AD118" s="44"/>
     </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="57" t="s">
+    <row r="119" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W119" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="X118" s="61" t="str">
-        <f>IF(X115&gt;X116,"BUY","SELL")</f>
+      <c r="X119" s="66" t="str">
+        <f>IF(X116&gt;X117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
+      <c r="Y119" s="44"/>
+      <c r="Z119" s="44"/>
+      <c r="AA119" s="44"/>
+      <c r="AB119" s="44"/>
+      <c r="AC119" s="44"/>
+      <c r="AD119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="AC83:AD83"/>
+  <mergeCells count="7">
     <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AC98:AD98"/>
-    <mergeCell ref="AC104:AD104"/>
+    <mergeCell ref="W110:X110"/>
+    <mergeCell ref="AC105:AD105"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="W104:AA104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MELI" display="ROIC.AI | MELI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11270,7 +11862,7 @@
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1099590/000109959023000007/0001099590-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1099590/000109959023000007/0001099590-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:MELI/explorer/revenue_proj" xr:uid="{A9D81E4D-9076-5E4D-ABE8-395EC388EF92}"/>
-    <hyperlink ref="AB106" r:id="rId45" xr:uid="{11060F21-E241-3E4E-9D40-CF67BCD582C1}"/>
+    <hyperlink ref="AB107" r:id="rId45" xr:uid="{11060F21-E241-3E4E-9D40-CF67BCD582C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId46"/>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E17EB-B509-AA43-8C97-BADC8530DFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF79D2A-129C-BA4F-952D-76531CB16B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2626,7 +2626,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2767,11 +2767,11 @@
     <v>Powered by Refinitiv</v>
     <v>1451.56</v>
     <v>792.45699999999999</v>
-    <v>1.5348999999999999</v>
-    <v>-31.74</v>
-    <v>-2.6195E-2</v>
-    <v>-2.97</v>
-    <v>-2.5169999999999997E-3</v>
+    <v>1.5392999999999999</v>
+    <v>-10.29</v>
+    <v>-8.7209999999999996E-3</v>
+    <v>-0.97</v>
+    <v>-8.2930000000000005E-4</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2779,25 +2779,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1228.865</v>
+    <v>1181</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999481689061</v>
+    <v>45219.999605902347</v>
     <v>0</v>
-    <v>1171.17</v>
-    <v>59107346893</v>
+    <v>1144.3</v>
+    <v>58591893318</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1220.6500000000001</v>
-    <v>81.249399999999994</v>
-    <v>1211.7</v>
+    <v>1180.78</v>
+    <v>79.121099999999998</v>
     <v>1179.96</v>
-    <v>1176.99</v>
+    <v>1169.67</v>
+    <v>1168.7</v>
     <v>50092670</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>492624</v>
-    <v>328649</v>
+    <v>354373</v>
+    <v>329456</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3385,7 +3385,7 @@
   <dimension ref="A1:AE119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="X124" sqref="X124"/>
@@ -4741,15 +4741,15 @@
       </c>
       <c r="AC16" s="32">
         <f>AD102/V3</f>
-        <v>5.6095043079624185</v>
+        <v>5.5605858705513906</v>
       </c>
       <c r="AD16" s="32">
         <f>AD102/V28</f>
-        <v>122.62935040041494</v>
+        <v>121.55994464315353</v>
       </c>
       <c r="AE16" s="33">
         <f>AD102/V107</f>
-        <v>23.776084832260661</v>
+        <v>23.568742283990346</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4988,15 +4988,15 @@
       </c>
       <c r="AC19" s="32">
         <f>AD102/W3</f>
-        <v>4.261524649819755</v>
+        <v>4.2243614504686375</v>
       </c>
       <c r="AD19" s="32">
         <f>AD102/W28</f>
-        <v>56.132333231718896</v>
+        <v>55.642823663817666</v>
       </c>
       <c r="AE19" s="33">
         <f>AD102/W105</f>
-        <v>17.935992807497428</v>
+        <v>17.779579567861838</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="AE22" s="36">
         <f>W107/AD102</f>
-        <v>1.030497953329952E-2</v>
+        <v>1.0395636077062533E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="AD95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="AD96" s="48" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.5348999999999999</v>
+        <v>1.5392999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="AD98" s="46">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>0.102710802</v>
+        <v>0.10240091600000001</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="AD101" s="46">
         <f>AD100/AD104</f>
-        <v>1.0976627550235752E-2</v>
+        <v>1.107212363617833E-2</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="AD102" s="49" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>59107346893</v>
+        <v>58591893318</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="AD103" s="46">
         <f>AD102/AD104</f>
-        <v>0.98902337244976424</v>
+        <v>0.98892787636382162</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11280,7 +11280,7 @@
       </c>
       <c r="AD104" s="50">
         <f>AD100+AD102</f>
-        <v>59763346893</v>
+        <v>59247893318</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="AD106" s="55">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>0.10490250074445034</v>
+        <v>0.10461511350507285</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11616,7 +11616,7 @@
       <c r="Z108" s="52"/>
       <c r="AA108" s="49">
         <f>AA105*(1+AD108)/(AD109-AD108)</f>
-        <v>88593448916.05014</v>
+        <v>88913245316.381744</v>
       </c>
       <c r="AB108" s="58" t="s">
         <v>146</v>
@@ -11647,7 +11647,7 @@
       </c>
       <c r="AA109" s="49">
         <f>AA108+AA105</f>
-        <v>95499632445.775131</v>
+        <v>95819428846.106735</v>
       </c>
       <c r="AB109" s="58" t="s">
         <v>143</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="AD109" s="40">
         <f>AD106</f>
-        <v>0.10490250074445034</v>
+        <v>0.10461511350507285</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="19" x14ac:dyDescent="0.2">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="X111" s="49">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>71612392990.997559</v>
+        <v>71891565174.020386</v>
       </c>
       <c r="Y111" s="44"/>
       <c r="Z111" s="44"/>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="X114" s="49">
         <f>X111+X112-X113</f>
-        <v>75205392990.997559</v>
+        <v>75484565174.020386</v>
       </c>
       <c r="Y114" s="44"/>
       <c r="Z114" s="44"/>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="X116" s="63">
         <f>X114/X115</f>
-        <v>1353.1878358709375</v>
+        <v>1358.2110448078984</v>
       </c>
       <c r="Y116" s="44"/>
       <c r="Z116" s="44"/>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="X117" s="64" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>1179.96</v>
+        <v>1169.67</v>
       </c>
       <c r="Y117" s="44"/>
       <c r="Z117" s="44"/>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="X118" s="65">
         <f>X116/X117-1</f>
-        <v>0.14680822728816012</v>
+        <v>0.16119165645686251</v>
       </c>
       <c r="Y118" s="44"/>
       <c r="Z118" s="44"/>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF79D2A-129C-BA4F-952D-76531CB16B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588B721-5C53-3B4F-B8B6-A7708464C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1050,6 +1050,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2601,13 +2604,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2623,14 +2628,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2640,6 +2645,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2766,12 +2773,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1451.56</v>
-    <v>792.45699999999999</v>
-    <v>1.5392999999999999</v>
-    <v>-10.29</v>
-    <v>-8.7209999999999996E-3</v>
-    <v>-0.97</v>
-    <v>-8.2930000000000005E-4</v>
+    <v>815.85500000000002</v>
+    <v>1.5367</v>
+    <v>25.45</v>
+    <v>2.1659999999999999E-2</v>
+    <v>0.3</v>
+    <v>2.499E-4</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2779,25 +2786,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1181</v>
+    <v>1216.93</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.999605902347</v>
+    <v>45226.996607383597</v>
     <v>0</v>
-    <v>1144.3</v>
-    <v>58591893318</v>
+    <v>1188.4000000000001</v>
+    <v>60133750000</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1180.78</v>
-    <v>79.121099999999998</v>
-    <v>1179.96</v>
-    <v>1169.67</v>
-    <v>1168.7</v>
+    <v>1199.9100000000001</v>
+    <v>80.495000000000005</v>
+    <v>1175</v>
+    <v>1200.45</v>
+    <v>1200.75</v>
     <v>50092670</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>354373</v>
-    <v>329456</v>
+    <v>498168</v>
+    <v>313638</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2962,9 +2969,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3385,10 +3392,10 @@
   <dimension ref="A1:AE119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X124" sqref="X124"/>
+      <selection pane="bottomRight" activeCell="U113" sqref="U113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4741,15 +4748,15 @@
       </c>
       <c r="AC16" s="32">
         <f>AD102/V3</f>
-        <v>5.5605858705513906</v>
+        <v>5.7069137325614498</v>
       </c>
       <c r="AD16" s="32">
         <f>AD102/V28</f>
-        <v>121.55994464315353</v>
+        <v>124.75881742738589</v>
       </c>
       <c r="AE16" s="33">
         <f>AD102/V107</f>
-        <v>23.568742283990346</v>
+        <v>24.188958165728078</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4988,15 +4995,15 @@
       </c>
       <c r="AC19" s="32">
         <f>AD102/W3</f>
-        <v>4.2243614504686375</v>
+        <v>4.3355263157894735</v>
       </c>
       <c r="AD19" s="32">
         <f>AD102/W28</f>
-        <v>55.642823663817666</v>
+        <v>57.107075023741693</v>
       </c>
       <c r="AE19" s="33">
         <f>AD102/W105</f>
-        <v>17.779579567861838</v>
+        <v>18.247452544948871</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5280,7 +5287,7 @@
       </c>
       <c r="AE22" s="36">
         <f>W107/AD102</f>
-        <v>1.0395636077062533E-2</v>
+        <v>1.0129087243020767E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9645,10 +9652,10 @@
       <c r="Z84" s="44"/>
       <c r="AA84" s="44"/>
       <c r="AB84" s="44"/>
-      <c r="AC84" s="69" t="s">
+      <c r="AC84" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AD84" s="70"/>
+      <c r="AD84" s="71"/>
     </row>
     <row r="85" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9723,10 +9730,10 @@
       <c r="Z85" s="44"/>
       <c r="AA85" s="44"/>
       <c r="AB85" s="44"/>
-      <c r="AC85" s="72" t="s">
+      <c r="AC85" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="AD85" s="72"/>
+      <c r="AD85" s="73"/>
     </row>
     <row r="86" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -10470,10 +10477,10 @@
       <c r="Z94" s="44"/>
       <c r="AA94" s="44"/>
       <c r="AB94" s="44"/>
-      <c r="AC94" s="72" t="s">
+      <c r="AC94" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="AD94" s="72"/>
+      <c r="AD94" s="73"/>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -10553,7 +10560,7 @@
       </c>
       <c r="AD95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10634,7 +10641,7 @@
       </c>
       <c r="AD96" s="48" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.5392999999999999</v>
+        <v>1.5367</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10795,7 +10802,7 @@
       </c>
       <c r="AD98" s="46">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>0.10240091600000001</v>
+        <v>0.103079685</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10871,10 +10878,10 @@
       <c r="Z99" s="44"/>
       <c r="AA99" s="44"/>
       <c r="AB99" s="44"/>
-      <c r="AC99" s="72" t="s">
+      <c r="AC99" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="AD99" s="72"/>
+      <c r="AD99" s="73"/>
     </row>
     <row r="100" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -11035,7 +11042,7 @@
       </c>
       <c r="AD101" s="46">
         <f>AD100/AD104</f>
-        <v>1.107212363617833E-2</v>
+        <v>1.0791292940010445E-2</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11116,7 +11123,7 @@
       </c>
       <c r="AD102" s="49" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>58591893318</v>
+        <v>60133750000</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11197,7 +11204,7 @@
       </c>
       <c r="AD103" s="46">
         <f>AD102/AD104</f>
-        <v>0.98892787636382162</v>
+        <v>0.98920870705998953</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11267,20 +11274,20 @@
       <c r="V104" s="11">
         <v>3363000000</v>
       </c>
-      <c r="W104" s="73" t="s">
+      <c r="W104" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="X104" s="73"/>
-      <c r="Y104" s="73"/>
-      <c r="Z104" s="73"/>
-      <c r="AA104" s="73"/>
+      <c r="X104" s="74"/>
+      <c r="Y104" s="74"/>
+      <c r="Z104" s="74"/>
+      <c r="AA104" s="74"/>
       <c r="AB104" s="44"/>
       <c r="AC104" s="38" t="s">
         <v>143</v>
       </c>
       <c r="AD104" s="50">
         <f>AD100+AD102</f>
-        <v>59247893318</v>
+        <v>60789750000</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11391,13 +11398,13 @@
         <f>Z105*(1+$AD$107)</f>
         <v>6906183529.7249966</v>
       </c>
-      <c r="AB105" s="52" t="s">
+      <c r="AB105" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="AC105" s="72" t="s">
+      <c r="AC105" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AD105" s="72"/>
+      <c r="AD105" s="73"/>
     </row>
     <row r="106" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -11513,7 +11520,7 @@
       </c>
       <c r="AD106" s="55">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>0.10461511350507285</v>
+        <v>0.10523039733393028</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11616,7 +11623,7 @@
       <c r="Z108" s="52"/>
       <c r="AA108" s="49">
         <f>AA105*(1+AD108)/(AD109-AD108)</f>
-        <v>88913245316.381744</v>
+        <v>88231373060.574448</v>
       </c>
       <c r="AB108" s="58" t="s">
         <v>146</v>
@@ -11647,7 +11654,7 @@
       </c>
       <c r="AA109" s="49">
         <f>AA108+AA105</f>
-        <v>95819428846.106735</v>
+        <v>95137556590.299438</v>
       </c>
       <c r="AB109" s="58" t="s">
         <v>143</v>
@@ -11657,14 +11664,14 @@
       </c>
       <c r="AD109" s="40">
         <f>AD106</f>
-        <v>0.10461511350507285</v>
+        <v>0.10523039733393028</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="19" x14ac:dyDescent="0.2">
-      <c r="W110" s="71" t="s">
+      <c r="W110" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="X110" s="71"/>
+      <c r="X110" s="72"/>
       <c r="Y110" s="44"/>
       <c r="Z110" s="44"/>
       <c r="AA110" s="44"/>
@@ -11678,7 +11685,7 @@
       </c>
       <c r="X111" s="49">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>71891565174.020386</v>
+        <v>71296338767.790222</v>
       </c>
       <c r="Y111" s="44"/>
       <c r="Z111" s="44"/>
@@ -11723,7 +11730,7 @@
       </c>
       <c r="X114" s="49">
         <f>X111+X112-X113</f>
-        <v>75484565174.020386</v>
+        <v>74889338767.790222</v>
       </c>
       <c r="Y114" s="44"/>
       <c r="Z114" s="44"/>
@@ -11753,7 +11760,7 @@
       </c>
       <c r="X116" s="63">
         <f>X114/X115</f>
-        <v>1358.2110448078984</v>
+        <v>1347.500999949862</v>
       </c>
       <c r="Y116" s="44"/>
       <c r="Z116" s="44"/>
@@ -11768,7 +11775,7 @@
       </c>
       <c r="X117" s="64" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>1169.67</v>
+        <v>1200.45</v>
       </c>
       <c r="Y117" s="44"/>
       <c r="Z117" s="44"/>
@@ -11783,7 +11790,7 @@
       </c>
       <c r="X118" s="65">
         <f>X116/X117-1</f>
-        <v>0.16119165645686251</v>
+        <v>0.12249656374681317</v>
       </c>
       <c r="Y118" s="44"/>
       <c r="Z118" s="44"/>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588B721-5C53-3B4F-B8B6-A7708464C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD96128-1429-6943-B6B6-C3E02AA45B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2609,13 +2609,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2632,7 +2629,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2644,9 +2641,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2774,11 +2768,11 @@
     <v>Powered by Refinitiv</v>
     <v>1451.56</v>
     <v>815.85500000000002</v>
-    <v>1.5367</v>
-    <v>25.45</v>
-    <v>2.1659999999999999E-2</v>
-    <v>0.3</v>
-    <v>2.499E-4</v>
+    <v>1.5397000000000001</v>
+    <v>68.290000000000006</v>
+    <v>5.1753999999999994E-2</v>
+    <v>-0.79</v>
+    <v>-5.6930000000000001E-4</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2786,25 +2780,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1216.93</v>
+    <v>1393.78</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.996607383597</v>
+    <v>45233.998626758592</v>
     <v>0</v>
-    <v>1188.4000000000001</v>
-    <v>60133750000</v>
+    <v>1346.57</v>
+    <v>69518106499</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1199.9100000000001</v>
-    <v>80.495000000000005</v>
-    <v>1175</v>
-    <v>1200.45</v>
-    <v>1200.75</v>
+    <v>1346.57</v>
+    <v>67.4953</v>
+    <v>1319.5</v>
+    <v>1387.79</v>
+    <v>1387</v>
     <v>50092670</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>498168</v>
-    <v>313638</v>
+    <v>734896</v>
+    <v>384911</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2969,9 +2963,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3392,10 +3386,10 @@
   <dimension ref="A1:AE119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U113" sqref="U113"/>
+      <selection pane="bottomRight" activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4748,15 +4742,15 @@
       </c>
       <c r="AC16" s="32">
         <f>AD102/V3</f>
-        <v>5.7069137325614498</v>
+        <v>6.5975236309196168</v>
       </c>
       <c r="AD16" s="32">
         <f>AD102/V28</f>
-        <v>124.75881742738589</v>
+        <v>144.228436719917</v>
       </c>
       <c r="AE16" s="33">
         <f>AD102/V107</f>
-        <v>24.188958165728078</v>
+        <v>27.963840104183426</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4995,15 +4989,15 @@
       </c>
       <c r="AC19" s="32">
         <f>AD102/W3</f>
-        <v>4.3355263157894735</v>
+        <v>5.0121201513338143</v>
       </c>
       <c r="AD19" s="32">
         <f>AD102/W28</f>
-        <v>57.107075023741693</v>
+        <v>66.019094490978162</v>
       </c>
       <c r="AE19" s="33">
         <f>AD102/W105</f>
-        <v>18.247452544948871</v>
+        <v>21.095114629558346</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5281,7 @@
       </c>
       <c r="AE22" s="36">
         <f>W107/AD102</f>
-        <v>1.0129087243020767E-2</v>
+        <v>8.7617461216202962E-3</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10560,7 +10554,7 @@
       </c>
       <c r="AD95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10641,7 +10635,7 @@
       </c>
       <c r="AD96" s="48" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.5367</v>
+        <v>1.5397000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10802,7 +10796,7 @@
       </c>
       <c r="AD98" s="46">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>0.103079685</v>
+        <v>0.10413620700000001</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11042,7 +11036,7 @@
       </c>
       <c r="AD101" s="46">
         <f>AD100/AD104</f>
-        <v>1.0791292940010445E-2</v>
+        <v>9.3481774507431486E-3</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11123,7 +11117,7 @@
       </c>
       <c r="AD102" s="49" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>60133750000</v>
+        <v>69518106499</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11204,7 +11198,7 @@
       </c>
       <c r="AD103" s="46">
         <f>AD102/AD104</f>
-        <v>0.98920870705998953</v>
+        <v>0.99065182254925688</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11287,7 +11281,7 @@
       </c>
       <c r="AD104" s="50">
         <f>AD100+AD102</f>
-        <v>60789750000</v>
+        <v>70174106499</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11520,7 +11514,7 @@
       </c>
       <c r="AD106" s="55">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>0.10523039733393028</v>
+        <v>0.10598942883861924</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11623,7 +11617,7 @@
       <c r="Z108" s="52"/>
       <c r="AA108" s="49">
         <f>AA105*(1+AD108)/(AD109-AD108)</f>
-        <v>88231373060.574448</v>
+        <v>87404470181.82486</v>
       </c>
       <c r="AB108" s="58" t="s">
         <v>146</v>
@@ -11654,7 +11648,7 @@
       </c>
       <c r="AA109" s="49">
         <f>AA108+AA105</f>
-        <v>95137556590.299438</v>
+        <v>94310653711.54985</v>
       </c>
       <c r="AB109" s="58" t="s">
         <v>143</v>
@@ -11664,7 +11658,7 @@
       </c>
       <c r="AD109" s="40">
         <f>AD106</f>
-        <v>0.10523039733393028</v>
+        <v>0.10598942883861924</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="19" x14ac:dyDescent="0.2">
@@ -11685,7 +11679,7 @@
       </c>
       <c r="X111" s="49">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>71296338767.790222</v>
+        <v>70574646822.575256</v>
       </c>
       <c r="Y111" s="44"/>
       <c r="Z111" s="44"/>
@@ -11730,7 +11724,7 @@
       </c>
       <c r="X114" s="49">
         <f>X111+X112-X113</f>
-        <v>74889338767.790222</v>
+        <v>74167646822.575256</v>
       </c>
       <c r="Y114" s="44"/>
       <c r="Z114" s="44"/>
@@ -11760,7 +11754,7 @@
       </c>
       <c r="X116" s="63">
         <f>X114/X115</f>
-        <v>1347.500999949862</v>
+        <v>1334.5154317256813</v>
       </c>
       <c r="Y116" s="44"/>
       <c r="Z116" s="44"/>
@@ -11775,7 +11769,7 @@
       </c>
       <c r="X117" s="64" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>1200.45</v>
+        <v>1387.79</v>
       </c>
       <c r="Y117" s="44"/>
       <c r="Z117" s="44"/>
@@ -11790,7 +11784,7 @@
       </c>
       <c r="X118" s="65">
         <f>X116/X117-1</f>
-        <v>0.12249656374681317</v>
+        <v>-3.8388061791999273E-2</v>
       </c>
       <c r="Y118" s="44"/>
       <c r="Z118" s="44"/>
@@ -11805,7 +11799,7 @@
       </c>
       <c r="X119" s="66" t="str">
         <f>IF(X116&gt;X117,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
       <c r="Y119" s="44"/>
       <c r="Z119" s="44"/>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB235606-7AB3-5744-8B45-8E07990032EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1F1A3-B22C-F945-B39D-E2CAC163A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1509,12 +1509,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1538,12 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1707,17 +1695,14 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1735,6 +1720,21 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2569,20 +2569,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:S196"/>
   <sheetViews>
     <sheetView topLeftCell="A179" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>16</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>3415000000</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>189</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0.12446493249917689</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>3415000000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1695000000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>1695000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>1720000000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1162000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>24</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>572000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>190</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.16749633967789165</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>25</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>368000000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>191</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0.10775988286969253</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>222000000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>27</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>558000000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>57</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>192</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>0.64117647058823524</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>86000000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>-96000000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>92000000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>188000000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>182000000</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>472000000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>210000000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>42</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>58</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>193</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0.30348258706467668</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>194</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>5.3791773778920311E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>50163000</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>51153000</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>686000000</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>558000000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>558000000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>84221</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>128000000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>22</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>12290000000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>4699000000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>64</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>1860000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>2839000000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>66</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>5046000000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>160000000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>68</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>2051000000</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>70</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>2835000000</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>236000000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>74</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>76</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>236000000</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>77</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>2309000000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>78</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>80</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>81</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>2953000000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>1869000000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>85</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1869000000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>86</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>149000000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>88</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>149000000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>90</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>935000000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>188000000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>166000000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>93</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>95</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>747000000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>97</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>15243000000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>98</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>6991000000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>99</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1831000000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>100</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>447000000</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>101</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>102</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>4713000000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>103</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>2452000000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>104</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>2286000000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>105</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>166000000</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>106</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>173000000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>107</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>108</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>109</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>110</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>173000000</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>111</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>9616000000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>112</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>3076000000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>113</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>2481000000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>114</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>595000000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>115</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>299000000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>116</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>112000000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>117</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>109</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>187000000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>119</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>3375000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>120</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>12991000000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>121</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>122</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>2309000000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>123</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>124</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>2309000000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>125</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1138000000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>126</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1376000000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>127</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>-295000000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>128</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>2252000000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>129</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>130</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>2252000000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>131</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>15243000000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="28" t="s">
         <v>132</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>50093000</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>195</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>-2.2904716379860135E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>133</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>761000000</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>2907000000</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>135</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>129.09</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>136</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>137</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>138</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>-71.599999999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>139</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>22</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>128000000</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>531000000</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="28" t="s">
         <v>143</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>196</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1.0541727672035138E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>144</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>145</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>146</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>479000000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>147</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>491000000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>148</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>149</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>-27000000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>150</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>-8000000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>151</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>626000000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>152</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>-109000000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>153</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>154</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>1412000000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>155</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>157</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>158</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>159</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>-114000000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>160</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>-114000000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>161</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>162</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>-109000000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>163</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>4819000000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>164</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>-4928000000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>165</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>166</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>167</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>168</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>169</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>-445000000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>153</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>-668000000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>-214000000</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>6340000000</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>-6554000000</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>-146000000</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>-146000000</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>153</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>-360000000</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>-84000000</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>384000000</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>52</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>686000000</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>53</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>182</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>183</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1298000000</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="28" t="s">
         <v>184</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>1349067797</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="21" t="s">
         <v>197</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0.62898923460069733</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="24" t="s">
         <v>198</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>0.39504181464128846</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>185</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>1084000000</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>186</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>187</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>188</v>
       </c>
@@ -14057,12 +14057,9 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14076,8 +14073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50167EF9-71CC-7D4E-AE7A-EB0A64EF2122}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14085,47 +14082,47 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="123" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="e" vm="1">
+    <row r="1" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-    </row>
-    <row r="2" spans="1:18" s="123" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+    </row>
+    <row r="2" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
@@ -14171,114 +14168,114 @@
         <v>206</v>
       </c>
       <c r="M3" s="47"/>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="49"/>
+      <c r="O3" s="120"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="A4" s="48">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-829000000</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="50">
         <f>Financials!O17*0.01</f>
         <v>0.12710000000000002</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="50">
         <f>SUM(C13:E13)/3</f>
         <v>-38.345764237639422</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="52">
         <f>A5*(1+(5*G3))</f>
         <v>53121236.368431002</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
         <v>34839692829.875389</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="56" cm="1">
+      <c r="K4" s="54" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
         <v>-1.8985999999999999E-2</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="55" t="s">
         <v>213</v>
       </c>
       <c r="M4" s="47"/>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="59"/>
+      <c r="O4" s="122"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" cm="1">
+      <c r="A5" s="48" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>50559540</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="50">
         <f>F14</f>
         <v>7.5723830734966593E-2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="50">
         <f>SUM(C16:E16)/3</f>
         <v>2.1691708353928458</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="52">
         <f>Financials!O56</f>
         <v>4699000000</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <f>I4+G5-G6</f>
         <v>34010692829.875389</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="61" cm="1">
+      <c r="K5" s="57" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
         <v>1341.38</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="58" t="s">
         <v>220</v>
       </c>
       <c r="M5" s="47"/>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="60">
         <f>Financials!O20</f>
         <v>-159000000</v>
       </c>
@@ -14287,53 +14284,53 @@
       <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="A6" s="61">
         <f>O20/F10</f>
         <v>4.8724445552841438</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="50">
         <f>F17</f>
         <v>4.9716215245348083E-2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <f>Financials!O33/Financials!O126</f>
         <v>0.33614564831261101</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="52">
         <f>Financials!O96+Financials!O105</f>
         <v>5528000000</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="54">
         <f>N25</f>
         <v>8.8287200081311218E-2</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="62">
         <f>I5/G4</f>
         <v>640.24663496136804</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="63" t="s">
         <v>226</v>
       </c>
       <c r="M6" s="47"/>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="60">
         <f>Financials!O96</f>
         <v>2452000000</v>
       </c>
@@ -14342,52 +14339,52 @@
       <c r="R6" s="47"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
+      <c r="A7" s="64">
         <f>O20/F12</f>
         <v>64.344929568311201</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="66">
         <f>F15/A3</f>
         <v>1.0203546634805946E-2</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="67">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.14874678663239074</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="68">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.4547069271758435</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="70">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="76">
+      <c r="K7" s="72">
         <f>K6/K5-1</f>
         <v>-0.52269555609792306</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="73" t="s">
         <v>232</v>
       </c>
       <c r="M7" s="47"/>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="60">
         <f>Financials!O105</f>
         <v>3076000000</v>
       </c>
@@ -14396,7 +14393,7 @@
       <c r="R7" s="47"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -14405,14 +14402,14 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="47"/>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="77">
         <f>O5/(O6+O7)</f>
         <v>-2.8762662807525326E-2</v>
       </c>
@@ -14421,41 +14418,41 @@
       <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79">
         <v>2019</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="79">
         <v>2020</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="79">
         <v>2021</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="80">
         <v>2022</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="81">
         <v>2023</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="82">
         <v>2024</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="82">
         <v>2025</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="82">
         <v>2026</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="83">
         <v>2027</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="63" t="s">
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="60">
         <f>Financials!O25</f>
         <v>545000000</v>
       </c>
@@ -14464,44 +14461,44 @@
       <c r="R9" s="47"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="89">
+      <c r="B10" s="85">
         <v>2296314000</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="85">
         <v>3973465000</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="85">
         <v>7069409000</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="86">
         <v>10537000000</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="85">
         <v>13919000000</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="85">
         <v>16858000000</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="85">
         <v>20807000000</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="85">
         <v>24690000000</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="86">
         <v>30246000000</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="N10" s="63" t="s">
+      <c r="L10" s="75"/>
+      <c r="N10" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="60">
         <f>Financials!O24</f>
         <v>1298000000</v>
       </c>
@@ -14510,50 +14507,50 @@
       <c r="R10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.73036657878669908</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="89">
         <f t="shared" si="0"/>
         <v>0.77915471760793165</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="89">
         <f t="shared" si="0"/>
         <v>0.49050649071230712</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="90">
         <f t="shared" si="0"/>
         <v>0.32096422131536495</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="89">
         <f t="shared" si="0"/>
         <v>0.2111502263093612</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="89">
         <f t="shared" si="0"/>
         <v>0.23425080080673855</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="89">
         <f t="shared" si="0"/>
         <v>0.18661988753784775</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="91">
         <f t="shared" si="0"/>
         <v>0.2250303766707169</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="91">
         <f>AVERAGE(F11:J11)</f>
         <v>0.23560310252800587</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="63" t="s">
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="92">
         <f>O9/O10</f>
         <v>0.41987673343605547</v>
       </c>
@@ -14562,45 +14559,45 @@
       <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="85">
         <v>-171999000</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="85">
         <v>-707000</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="85">
         <v>83304000</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="85">
         <v>482000000</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="93">
         <v>1054000000</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="85">
         <v>1470000000</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="85">
         <v>1923000000</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="85">
         <v>2451000000</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="86">
         <v>3728000000</v>
       </c>
-      <c r="K12" s="98" t="s">
+      <c r="K12" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="63" t="s">
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="96">
+      <c r="O12" s="92">
         <f>O8*(1-O11)</f>
         <v>-1.6685889902978868E-2</v>
       </c>
@@ -14609,101 +14606,101 @@
       <c r="R12" s="47"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.99588951098552903</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="89">
         <f t="shared" si="1"/>
         <v>-118.82743988684582</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="89">
         <f t="shared" si="1"/>
         <v>4.7860366849130891</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="90">
         <f t="shared" si="1"/>
         <v>1.1867219917012446</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="89">
         <f t="shared" si="1"/>
         <v>0.39468690702087295</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="89">
         <f t="shared" si="1"/>
         <v>0.30816326530612237</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="89">
         <f t="shared" si="1"/>
         <v>0.27457098283931347</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="91">
         <f t="shared" si="1"/>
         <v>0.52101183190534472</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="91">
         <f>AVERAGE(F13:J13)</f>
         <v>0.53703099575457958</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="58" t="s">
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="59"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="47"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="47"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="96">
         <f>B12/B10</f>
         <v>-7.4902212850681577E-2</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="96">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-1.7793034542898956E-4</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="96">
         <f t="shared" si="2"/>
         <v>1.1783729021761224E-2</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="96">
         <f t="shared" si="2"/>
         <v>4.5743570276169689E-2</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="97">
         <f t="shared" si="2"/>
         <v>7.5723830734966593E-2</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="96">
         <f t="shared" si="2"/>
         <v>8.7198955985288887E-2</v>
       </c>
-      <c r="H14" s="100">
+      <c r="H14" s="96">
         <f t="shared" si="2"/>
         <v>9.2420819916374297E-2</v>
       </c>
-      <c r="I14" s="100">
+      <c r="I14" s="96">
         <f t="shared" si="2"/>
         <v>9.927095990279465E-2</v>
       </c>
-      <c r="J14" s="102">
+      <c r="J14" s="98">
         <f t="shared" si="2"/>
         <v>0.12325596773127025</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="63" t="s">
+      <c r="K14" s="98"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="O14" s="96">
+      <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
         <v>4.5080000000000002E-2</v>
       </c>
@@ -14712,45 +14709,45 @@
       <c r="R14" s="47"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="85">
         <v>314221000</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="85">
         <v>934483375</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="85">
         <v>442822685</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="85">
         <v>2683361538</v>
       </c>
-      <c r="F15" s="97">
+      <c r="F15" s="93">
         <v>692000000</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="85">
         <v>1003000000</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="85">
         <v>1263000000</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="85">
         <v>1853000000</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15" s="86">
         <v>2757000000</v>
       </c>
-      <c r="K15" s="98" t="s">
+      <c r="K15" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="63" t="s">
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="99">
         <f>1.33</f>
         <v>1.33</v>
       </c>
@@ -14759,50 +14756,50 @@
       <c r="R15" s="47"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93">
+      <c r="A16" s="100"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.973968560344471</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="89">
         <f t="shared" si="3"/>
         <v>-0.52613101864974321</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="89">
         <f t="shared" si="3"/>
         <v>5.0596749644838095</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="90">
         <f t="shared" si="3"/>
         <v>-0.74211451189101751</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="89">
         <f t="shared" si="3"/>
         <v>0.449421965317919</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="89">
         <f t="shared" si="3"/>
         <v>0.25922233300099706</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="89">
         <f t="shared" si="3"/>
         <v>0.46714172604908955</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J16" s="91">
         <f t="shared" si="3"/>
         <v>0.48785752833243379</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="91">
         <f>AVERAGE(F16:J16)</f>
         <v>0.18430580816188438</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="63" t="s">
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="O16" s="96">
+      <c r="O16" s="92">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="47"/>
@@ -14810,52 +14807,52 @@
       <c r="R16" s="47"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="100">
+      <c r="B17" s="96">
         <f>B15/B10</f>
         <v>0.13683712244928176</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="96">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.23518097554653181</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="96">
         <f t="shared" si="4"/>
         <v>6.2639279323066469E-2</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="98">
         <f t="shared" si="4"/>
         <v>0.25466086533168836</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="96">
         <f t="shared" si="4"/>
         <v>4.9716215245348083E-2</v>
       </c>
-      <c r="G17" s="100">
+      <c r="G17" s="96">
         <f t="shared" si="4"/>
         <v>5.9496974730098469E-2</v>
       </c>
-      <c r="H17" s="100">
+      <c r="H17" s="96">
         <f t="shared" si="4"/>
         <v>6.0700725717306676E-2</v>
       </c>
-      <c r="I17" s="100">
+      <c r="I17" s="96">
         <f t="shared" si="4"/>
         <v>7.5050627784528146E-2</v>
       </c>
-      <c r="J17" s="102">
+      <c r="J17" s="98">
         <f t="shared" si="4"/>
         <v>9.1152549097401309E-2</v>
       </c>
-      <c r="K17" s="102"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="105" t="s">
+      <c r="K17" s="98"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="O17" s="106">
+      <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
         <v>9.6843600000000002E-2</v>
       </c>
@@ -14864,57 +14861,57 @@
       <c r="R17" s="47"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="104">
         <v>-3.7062421395721606E-2</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="104">
         <v>2.8505274587507075E-2</v>
       </c>
-      <c r="D18" s="108">
+      <c r="D18" s="104">
         <v>5.9939813057605117E-2</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="104">
         <v>0.10709846706256042</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="58" t="s">
+      <c r="F18" s="105"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="O18" s="59"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="47"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="63" t="s">
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="112">
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>5528000000</v>
       </c>
@@ -14923,22 +14920,22 @@
       <c r="R19" s="47"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="63" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="112">
+      <c r="O20" s="108">
         <f>A3</f>
         <v>67819555765</v>
       </c>
@@ -14947,28 +14944,28 @@
       <c r="R20" s="47"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114" t="str" cm="1">
+      <c r="A21" s="112" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115" cm="1">
+      <c r="B21" s="112"/>
+      <c r="C21" s="123" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1999</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="63" t="s">
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="O21" s="112">
+      <c r="O21" s="108">
         <f>O19+O20</f>
         <v>73347555765</v>
       </c>
@@ -14977,26 +14974,26 @@
       <c r="R21" s="47"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114" t="str" cm="1">
+      <c r="A22" s="112" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="80" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O22" s="110">
         <f>(O19/O21)</f>
         <v>7.5367201297222394E-2</v>
       </c>
@@ -15005,23 +15002,23 @@
       <c r="R22" s="47"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="105" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="O23" s="117">
+      <c r="O23" s="111">
         <f>O20/O21</f>
         <v>0.92463279870277759</v>
       </c>
@@ -15030,145 +15027,145 @@
       <c r="R23" s="47"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="118" t="s">
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="O24" s="119"/>
+      <c r="O24" s="114"/>
       <c r="P24" s="47"/>
       <c r="Q24" s="47"/>
       <c r="R24" s="47"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="120">
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
         <v>8.8287200081311218E-2</v>
       </c>
-      <c r="O25" s="121"/>
+      <c r="O25" s="116"/>
       <c r="P25" s="47"/>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
       <c r="O28" s="47"/>
       <c r="P28" s="47"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="47"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="47"/>
       <c r="P29" s="47"/>
       <c r="Q29" s="47"/>
       <c r="R29" s="47"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
       <c r="O30" s="47"/>
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
@@ -15215,582 +15212,582 @@
       <c r="R32" s="47"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="47"/>
       <c r="R33" s="47"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
       <c r="Q34" s="47"/>
       <c r="R34" s="47"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="47"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
       <c r="Q36" s="47"/>
       <c r="R36" s="47"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
       <c r="Q37" s="47"/>
       <c r="R37" s="47"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
       <c r="Q38" s="47"/>
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
       <c r="Q40" s="47"/>
       <c r="R40" s="47"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="47"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
       <c r="Q42" s="47"/>
       <c r="R42" s="47"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
       <c r="Q43" s="47"/>
       <c r="R43" s="47"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
       <c r="Q44" s="47"/>
       <c r="R44" s="47"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
       <c r="Q45" s="47"/>
       <c r="R45" s="47"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="75"/>
       <c r="Q46" s="47"/>
       <c r="R46" s="47"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
       <c r="Q47" s="47"/>
       <c r="R47" s="47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
       <c r="Q48" s="47"/>
       <c r="R48" s="47"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
       <c r="Q49" s="47"/>
       <c r="R49" s="47"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
       <c r="Q50" s="47"/>
       <c r="R50" s="47"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
       <c r="Q51" s="47"/>
       <c r="R51" s="47"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
+      <c r="O52" s="75"/>
+      <c r="P52" s="75"/>
       <c r="Q52" s="47"/>
       <c r="R52" s="47"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
       <c r="Q53" s="47"/>
       <c r="R53" s="47"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
       <c r="Q54" s="47"/>
       <c r="R54" s="47"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
       <c r="Q55" s="47"/>
       <c r="R55" s="47"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
       <c r="Q56" s="47"/>
       <c r="R56" s="47"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
       <c r="Q57" s="47"/>
       <c r="R57" s="47"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
       <c r="Q58" s="47"/>
       <c r="R58" s="47"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="75"/>
+      <c r="O59" s="75"/>
+      <c r="P59" s="75"/>
       <c r="Q59" s="47"/>
       <c r="R59" s="47"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="75"/>
+      <c r="P60" s="75"/>
       <c r="Q60" s="47"/>
       <c r="R60" s="47"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
       <c r="Q61" s="47"/>
       <c r="R61" s="47"/>
     </row>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1F1A3-B22C-F945-B39D-E2CAC163A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388881E-F032-DE4F-A844-FF68480A8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1409,12 +1409,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,16 +1550,10 @@
     <xf numFmtId="9" fontId="13" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,19 +1572,10 @@
     <xf numFmtId="9" fontId="13" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1535,9 +1583,6 @@
     </xf>
     <xf numFmtId="9" fontId="15" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1551,9 +1596,6 @@
     <xf numFmtId="167" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="18" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1563,20 +1605,11 @@
     <xf numFmtId="9" fontId="13" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1606,15 +1639,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,6 +1725,48 @@
     <xf numFmtId="10" fontId="21" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1735,7 +1801,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1773,6 +1845,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1790,7 +1863,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1802,6 +1875,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1927,13 +2001,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1451.56</v>
+    <v>1660</v>
     <v>815.85500000000002</v>
-    <v>1.5358000000000001</v>
-    <v>-25.96</v>
-    <v>-1.8985999999999999E-2</v>
-    <v>-1.03</v>
-    <v>-7.6789999999999996E-4</v>
+    <v>1.5748</v>
+    <v>31.55</v>
+    <v>1.9470000000000001E-2</v>
+    <v>2.89</v>
+    <v>1.7489999999999999E-3</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -1941,25 +2015,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1383.31</v>
+    <v>1660</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.033202001563</v>
+    <v>45262.035809224217</v>
     <v>0</v>
-    <v>1339.67</v>
-    <v>67819555765</v>
+    <v>1607.75</v>
+    <v>83524865675</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1378.34</v>
-    <v>68.614500000000007</v>
-    <v>1367.34</v>
-    <v>1341.38</v>
-    <v>1340.35</v>
+    <v>1609.33</v>
+    <v>82.89</v>
+    <v>1620.46</v>
+    <v>1652.01</v>
+    <v>1654.9</v>
     <v>50559540</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>251897</v>
-    <v>407434</v>
+    <v>377783</v>
+    <v>468349</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2124,9 +2198,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2571,9 +2645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
+      <selection pane="topRight" activeCell="S197" sqref="S197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14073,8 +14147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50167EF9-71CC-7D4E-AE7A-EB0A64EF2122}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14082,1916 +14156,1915 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="e" vm="1">
+    <row r="1" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-    </row>
-    <row r="2" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+    </row>
+    <row r="2" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>67819555765</v>
+        <v>83524865675</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="99">
         <f>Financials!O8*0.01</f>
         <v>0.49920000000000003</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="99">
         <f>SUM(C11:E11)/3</f>
         <v>0.66667592903564599</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
-        <f>AVERAGE(Financials!B129:O129)</f>
-        <v>1.0133384791202618E-2</v>
-      </c>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="41">
+        <f>AVERAGE(Financials!N129:S129)</f>
+        <v>-1.0774663735356367E-3</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="103">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>44652394107.643547</v>
-      </c>
-      <c r="J3" s="44" t="s">
+        <v>54933825758.255959</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="43">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="119" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="46">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-829000000</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="100">
         <f>Financials!O17*0.01</f>
         <v>0.12710000000000002</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="100">
         <f>SUM(C13:E13)/3</f>
         <v>-38.345764237639422</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="49">
         <f>A5*(1+(5*G3))</f>
-        <v>53121236.368431002</v>
-      </c>
-      <c r="H4" s="51" t="s">
+        <v>50287158.978942849</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="104">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>34839692829.875389</v>
-      </c>
-      <c r="J4" s="51" t="s">
+        <v>44970003948.985954</v>
+      </c>
+      <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="105" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.8985999999999999E-2</v>
-      </c>
-      <c r="L4" s="55" t="s">
+        <v>1.9470000000000001E-2</v>
+      </c>
+      <c r="L4" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="121" t="s">
+      <c r="M4" s="45"/>
+      <c r="N4" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" cm="1">
+      <c r="A5" s="46" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>50559540</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="100">
         <f>F14</f>
-        <v>7.5723830734966593E-2</v>
-      </c>
-      <c r="D5" s="56" t="s">
+        <v>7.8328981723237601E-2</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="100">
         <f>SUM(C16:E16)/3</f>
         <v>2.1691708353928458</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="49">
         <f>Financials!O56</f>
         <v>4699000000</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="104">
         <f>I4+G5-G6</f>
-        <v>34010692829.875389</v>
-      </c>
-      <c r="J5" s="51" t="s">
+        <v>44141003948.985954</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="57" cm="1">
+      <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1341.38</v>
-      </c>
-      <c r="L5" s="58" t="s">
+        <v>1652.01</v>
+      </c>
+      <c r="L5" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="59" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="54">
         <f>Financials!O20</f>
         <v>-159000000</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61">
+      <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>4.8724445552841438</v>
-      </c>
-      <c r="B6" s="49" t="s">
+        <v>5.8940699791828379</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="100">
         <f>F17</f>
-        <v>4.9716215245348083E-2</v>
-      </c>
-      <c r="D6" s="56" t="s">
+        <v>0.13188906922588384</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="100">
         <f>Financials!O33/Financials!O126</f>
         <v>0.33614564831261101</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="49">
         <f>Financials!O96+Financials!O105</f>
         <v>5528000000</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="107">
         <f>N25</f>
-        <v>8.8287200081311218E-2</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>9.0529752394115537E-2</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="109">
         <f>I5/G4</f>
-        <v>640.24663496136804</v>
-      </c>
-      <c r="L6" s="63" t="s">
+        <v>877.77883748551949</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="59" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="54">
         <f>Financials!O96</f>
         <v>2452000000</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+      <c r="A7" s="57">
         <f>O20/F12</f>
-        <v>64.344929568311201</v>
-      </c>
-      <c r="B7" s="65" t="s">
+        <v>75.247626734234231</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="101">
         <f>F15/A3</f>
-        <v>1.0203546634805946E-2</v>
-      </c>
-      <c r="D7" s="65" t="s">
+        <v>2.2376569957889968E-2</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="102">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.14874678663239074</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="59">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.4547069271758435</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="106">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="62">
         <f>K6/K5-1</f>
-        <v>-0.52269555609792306</v>
-      </c>
-      <c r="L7" s="73" t="s">
+        <v>-0.46866009437865419</v>
+      </c>
+      <c r="L7" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="59" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="60">
+      <c r="O7" s="54">
         <f>Financials!O105</f>
         <v>3076000000</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="76" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="67">
         <f>O5/(O6+O7)</f>
         <v>-2.8762662807525326E-2</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69">
         <v>2019</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="69">
         <v>2020</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="69">
         <v>2021</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="70">
         <v>2022</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="110">
         <v>2023</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="111">
         <v>2024</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="111">
         <v>2025</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="111">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="112">
         <v>2027</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="59" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="54">
         <f>Financials!O25</f>
         <v>545000000</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="72">
         <v>2296314000</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="72">
         <v>3973465000</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="72">
         <v>7069409000</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="73">
         <v>10537000000</v>
       </c>
-      <c r="F10" s="85">
-        <v>13919000000</v>
-      </c>
-      <c r="G10" s="85">
-        <v>16858000000</v>
-      </c>
-      <c r="H10" s="85">
-        <v>20807000000</v>
-      </c>
-      <c r="I10" s="85">
-        <v>24690000000</v>
-      </c>
-      <c r="J10" s="86">
-        <v>30246000000</v>
-      </c>
-      <c r="K10" s="87" t="s">
+      <c r="F10" s="72">
+        <v>14171000000</v>
+      </c>
+      <c r="G10" s="72">
+        <v>17304000000</v>
+      </c>
+      <c r="H10" s="72">
+        <v>20963000000</v>
+      </c>
+      <c r="I10" s="72">
+        <v>25454000000</v>
+      </c>
+      <c r="J10" s="73">
+        <v>31376000000</v>
+      </c>
+      <c r="K10" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="N10" s="59" t="s">
+      <c r="L10" s="65"/>
+      <c r="N10" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="54">
         <f>Financials!O24</f>
         <v>1298000000</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.73036657878669908</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="76">
         <f t="shared" si="0"/>
         <v>0.77915471760793165</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="76">
         <f t="shared" si="0"/>
         <v>0.49050649071230712</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="77">
         <f t="shared" si="0"/>
-        <v>0.32096422131536495</v>
-      </c>
-      <c r="G11" s="89">
+        <v>0.34487994685394319</v>
+      </c>
+      <c r="G11" s="76">
         <f t="shared" si="0"/>
-        <v>0.2111502263093612</v>
-      </c>
-      <c r="H11" s="89">
+        <v>0.2210853150800931</v>
+      </c>
+      <c r="H11" s="76">
         <f t="shared" si="0"/>
-        <v>0.23425080080673855</v>
-      </c>
-      <c r="I11" s="89">
+        <v>0.21145399907535833</v>
+      </c>
+      <c r="I11" s="76">
         <f t="shared" si="0"/>
-        <v>0.18661988753784775</v>
-      </c>
-      <c r="J11" s="91">
+        <v>0.21423460382578829</v>
+      </c>
+      <c r="J11" s="78">
         <f t="shared" si="0"/>
-        <v>0.2250303766707169</v>
-      </c>
-      <c r="K11" s="91">
+        <v>0.23265498546397412</v>
+      </c>
+      <c r="K11" s="78">
         <f>AVERAGE(F11:J11)</f>
-        <v>0.23560310252800587</v>
-      </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="59" t="s">
+        <v>0.2448617700598314</v>
+      </c>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="79">
         <f>O9/O10</f>
         <v>0.41987673343605547</v>
       </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="72">
         <v>-171999000</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="72">
         <v>-707000</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="72">
         <v>83304000</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="72">
         <v>482000000</v>
       </c>
-      <c r="F12" s="93">
-        <v>1054000000</v>
-      </c>
-      <c r="G12" s="85">
-        <v>1470000000</v>
-      </c>
-      <c r="H12" s="85">
-        <v>1923000000</v>
-      </c>
-      <c r="I12" s="85">
-        <v>2451000000</v>
-      </c>
-      <c r="J12" s="86">
-        <v>3728000000</v>
-      </c>
-      <c r="K12" s="94" t="s">
+      <c r="F12" s="80">
+        <v>1110000000</v>
+      </c>
+      <c r="G12" s="72">
+        <v>1492000000</v>
+      </c>
+      <c r="H12" s="72">
+        <v>2068000000</v>
+      </c>
+      <c r="I12" s="72">
+        <v>2665000000</v>
+      </c>
+      <c r="J12" s="73">
+        <v>4118000000</v>
+      </c>
+      <c r="K12" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="59" t="s">
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="79">
         <f>O8*(1-O11)</f>
         <v>-1.6685889902978868E-2</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.99588951098552903</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="76">
         <f t="shared" si="1"/>
         <v>-118.82743988684582</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="76">
         <f t="shared" si="1"/>
         <v>4.7860366849130891</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="77">
         <f t="shared" si="1"/>
-        <v>1.1867219917012446</v>
-      </c>
-      <c r="G13" s="89">
+        <v>1.3029045643153525</v>
+      </c>
+      <c r="G13" s="76">
         <f t="shared" si="1"/>
-        <v>0.39468690702087295</v>
-      </c>
-      <c r="H13" s="89">
+        <v>0.34414414414414418</v>
+      </c>
+      <c r="H13" s="76">
         <f t="shared" si="1"/>
-        <v>0.30816326530612237</v>
-      </c>
-      <c r="I13" s="89">
+        <v>0.386058981233244</v>
+      </c>
+      <c r="I13" s="76">
         <f t="shared" si="1"/>
-        <v>0.27457098283931347</v>
-      </c>
-      <c r="J13" s="91">
+        <v>0.28868471953578334</v>
+      </c>
+      <c r="J13" s="78">
         <f t="shared" si="1"/>
-        <v>0.52101183190534472</v>
-      </c>
-      <c r="K13" s="91">
-        <f>AVERAGE(F13:J13)</f>
-        <v>0.53703099575457958</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="121" t="s">
+        <v>0.54521575984990611</v>
+      </c>
+      <c r="K13" s="78">
+        <f>AVERAGE(G13:J13)</f>
+        <v>0.39102590119076941</v>
+      </c>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="83">
         <f>B12/B10</f>
         <v>-7.4902212850681577E-2</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="83">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-1.7793034542898956E-4</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="83">
         <f t="shared" si="2"/>
         <v>1.1783729021761224E-2</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="83">
         <f t="shared" si="2"/>
         <v>4.5743570276169689E-2</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="84">
         <f t="shared" si="2"/>
-        <v>7.5723830734966593E-2</v>
-      </c>
-      <c r="G14" s="96">
+        <v>7.8328981723237601E-2</v>
+      </c>
+      <c r="G14" s="83">
         <f t="shared" si="2"/>
-        <v>8.7198955985288887E-2</v>
-      </c>
-      <c r="H14" s="96">
+        <v>8.6222838650023115E-2</v>
+      </c>
+      <c r="H14" s="83">
         <f t="shared" si="2"/>
-        <v>9.2420819916374297E-2</v>
-      </c>
-      <c r="I14" s="96">
+        <v>9.8650002385154797E-2</v>
+      </c>
+      <c r="I14" s="83">
         <f t="shared" si="2"/>
-        <v>9.927095990279465E-2</v>
-      </c>
-      <c r="J14" s="98">
+        <v>0.10469867211440245</v>
+      </c>
+      <c r="J14" s="85">
         <f t="shared" si="2"/>
-        <v>0.12325596773127025</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="59" t="s">
+        <v>0.13124681285058643</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="O14" s="92">
+      <c r="O14" s="79">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="72">
         <v>314221000</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="72">
         <v>934483375</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="72">
         <v>442822685</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="72">
         <v>2683361538</v>
       </c>
-      <c r="F15" s="93">
-        <v>692000000</v>
-      </c>
-      <c r="G15" s="85">
-        <v>1003000000</v>
-      </c>
-      <c r="H15" s="85">
-        <v>1263000000</v>
-      </c>
-      <c r="I15" s="85">
-        <v>1853000000</v>
-      </c>
-      <c r="J15" s="86">
-        <v>2757000000</v>
-      </c>
-      <c r="K15" s="94" t="s">
+      <c r="F15" s="80">
+        <v>1869000000</v>
+      </c>
+      <c r="G15" s="72">
+        <v>1772000000</v>
+      </c>
+      <c r="H15" s="72">
+        <v>2265000000</v>
+      </c>
+      <c r="I15" s="72">
+        <v>3007000000</v>
+      </c>
+      <c r="J15" s="73">
+        <v>3512000000</v>
+      </c>
+      <c r="K15" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="59" t="s">
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="O15" s="99">
+      <c r="O15" s="86">
         <f>1.33</f>
         <v>1.33</v>
       </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89">
+      <c r="A16" s="87"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.973968560344471</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="76">
         <f t="shared" si="3"/>
         <v>-0.52613101864974321</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="76">
         <f t="shared" si="3"/>
         <v>5.0596749644838095</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="77">
         <f t="shared" si="3"/>
-        <v>-0.74211451189101751</v>
-      </c>
-      <c r="G16" s="89">
+        <v>-0.30348558197154873</v>
+      </c>
+      <c r="G16" s="76">
         <f t="shared" si="3"/>
-        <v>0.449421965317919</v>
-      </c>
-      <c r="H16" s="89">
+        <v>-5.1899411449973232E-2</v>
+      </c>
+      <c r="H16" s="76">
         <f t="shared" si="3"/>
-        <v>0.25922233300099706</v>
-      </c>
-      <c r="I16" s="89">
+        <v>0.27821670428893897</v>
+      </c>
+      <c r="I16" s="76">
         <f t="shared" si="3"/>
-        <v>0.46714172604908955</v>
-      </c>
-      <c r="J16" s="91">
+        <v>0.32759381898454754</v>
+      </c>
+      <c r="J16" s="78">
         <f t="shared" si="3"/>
-        <v>0.48785752833243379</v>
-      </c>
-      <c r="K16" s="91">
-        <f>AVERAGE(F16:J16)</f>
-        <v>0.18430580816188438</v>
-      </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="59" t="s">
+        <v>0.1679414699035584</v>
+      </c>
+      <c r="K16" s="78">
+        <f>AVERAGE(G16:J16)</f>
+        <v>0.18046314543176792</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="O16" s="92">
+      <c r="O16" s="79">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="96">
+      <c r="B17" s="83">
         <f>B15/B10</f>
         <v>0.13683712244928176</v>
       </c>
-      <c r="C17" s="96">
+      <c r="C17" s="83">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.23518097554653181</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="83">
         <f t="shared" si="4"/>
         <v>6.2639279323066469E-2</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="85">
         <f t="shared" si="4"/>
         <v>0.25466086533168836</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="83">
         <f t="shared" si="4"/>
-        <v>4.9716215245348083E-2</v>
-      </c>
-      <c r="G17" s="96">
+        <v>0.13188906922588384</v>
+      </c>
+      <c r="G17" s="83">
         <f t="shared" si="4"/>
-        <v>5.9496974730098469E-2</v>
-      </c>
-      <c r="H17" s="96">
+        <v>0.1024040684234859</v>
+      </c>
+      <c r="H17" s="83">
         <f t="shared" si="4"/>
-        <v>6.0700725717306676E-2</v>
-      </c>
-      <c r="I17" s="96">
+        <v>0.1080475122835472</v>
+      </c>
+      <c r="I17" s="83">
         <f t="shared" si="4"/>
-        <v>7.5050627784528146E-2</v>
-      </c>
-      <c r="J17" s="98">
+        <v>0.1181346743144496</v>
+      </c>
+      <c r="J17" s="85">
         <f t="shared" si="4"/>
-        <v>9.1152549097401309E-2</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="101" t="s">
+        <v>0.11193268740438551</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="O17" s="102">
+      <c r="O17" s="89">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
-      </c>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
+        <v>9.762570000000001E-2</v>
+      </c>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="104">
+      <c r="B18" s="91">
         <v>-3.7062421395721606E-2</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="91">
         <v>2.8505274587507075E-2</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="91">
         <v>5.9939813057605117E-2</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="91">
         <v>0.10709846706256042</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="121" t="s">
+      <c r="F18" s="92"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="O18" s="122"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="59" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="108">
+      <c r="O19" s="95">
         <f>O6+O7</f>
         <v>5528000000</v>
       </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="59" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="108">
+      <c r="O20" s="95">
         <f>A3</f>
-        <v>67819555765</v>
-      </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
+        <v>83524865675</v>
+      </c>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="str" cm="1">
+      <c r="A21" s="125" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="123" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1999</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="59" t="s">
+      <c r="E21" s="126"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="O21" s="108">
+      <c r="O21" s="95">
         <f>O19+O20</f>
-        <v>73347555765</v>
-      </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
+        <v>89052865675</v>
+      </c>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112" t="str" cm="1">
+      <c r="A22" s="113" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76" t="s">
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="O22" s="110">
+      <c r="O22" s="97">
         <f>(O19/O21)</f>
-        <v>7.5367201297222394E-2</v>
-      </c>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
+        <v>6.2075486938000773E-2</v>
+      </c>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="101" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="O23" s="111">
+      <c r="O23" s="98">
         <f>O20/O21</f>
-        <v>0.92463279870277759</v>
-      </c>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
+        <v>0.9379245130619992</v>
+      </c>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="113" t="s">
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="115">
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8287200081311218E-2</v>
-      </c>
-      <c r="O25" s="116"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
+        <v>9.0529752394115537E-2</v>
+      </c>
+      <c r="O25" s="117"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="45"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="45"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="45"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="45"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="45"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="47"/>
-      <c r="P87" s="47"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="45"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="47"/>
-      <c r="P88" s="47"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="47"/>
-      <c r="P89" s="47"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="45"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="45"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="45"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="45"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="47"/>
-      <c r="P96" s="47"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="45"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="47"/>
-      <c r="P98" s="47"/>
+      <c r="O98" s="45"/>
+      <c r="P98" s="45"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="47"/>
-      <c r="P99" s="47"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="45"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="47"/>
-      <c r="P100" s="47"/>
+      <c r="O100" s="45"/>
+      <c r="P100" s="45"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="47"/>
-      <c r="P101" s="47"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="47"/>
-      <c r="P102" s="47"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
+      <c r="O103" s="45"/>
+      <c r="P103" s="45"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="47"/>
-      <c r="P104" s="47"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="47"/>
-      <c r="P105" s="47"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="45"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="47"/>
-      <c r="P106" s="47"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="47"/>
-      <c r="P107" s="47"/>
+      <c r="O107" s="45"/>
+      <c r="P107" s="45"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="47"/>
-      <c r="P108" s="47"/>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="47"/>
-      <c r="P109" s="47"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="47"/>
-      <c r="P110" s="47"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:E30"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15999,8 +16072,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:E28"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:MELI/explorer/revenue_proj/" xr:uid="{25723298-48C8-0C44-B669-0113FFC23EAB}"/>

--- a/Technology/Software/MercadoLibre.xlsx
+++ b/Technology/Software/MercadoLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388881E-F032-DE4F-A844-FF68480A8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3411732-9045-CD48-9229-D87A55A7D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1768,7 +1768,7 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1801,7 +1801,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1844,6 +1844,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1863,7 +1865,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1876,6 +1878,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2003,11 +2007,11 @@
     <v>Powered by Refinitiv</v>
     <v>1660</v>
     <v>815.85500000000002</v>
-    <v>1.5748</v>
-    <v>31.55</v>
-    <v>1.9470000000000001E-2</v>
-    <v>2.89</v>
-    <v>1.7489999999999999E-3</v>
+    <v>1.5765</v>
+    <v>-12.96</v>
+    <v>-8.1460000000000005E-3</v>
+    <v>0.87</v>
+    <v>5.5130000000000001E-4</v>
     <v>USD</v>
     <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
     <v>40548</v>
@@ -2015,25 +2019,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>WTC Free Zone, Dr. Luis Bonavita 1294, Of. 1733, Tower II, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>1660</v>
+    <v>1594.01</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.035809224217</v>
+    <v>45269.040927789065</v>
     <v>0</v>
-    <v>1607.75</v>
-    <v>83524865675</v>
+    <v>1573</v>
+    <v>79781942929</v>
     <v>MERCADOLIBRE, INC.</v>
     <v>MERCADOLIBRE, INC.</v>
-    <v>1609.33</v>
-    <v>82.89</v>
-    <v>1620.46</v>
-    <v>1652.01</v>
-    <v>1654.9</v>
+    <v>1577.69</v>
+    <v>81.055999999999997</v>
+    <v>1590.94</v>
+    <v>1577.98</v>
+    <v>1578.85</v>
     <v>50559540</v>
     <v>MELI</v>
     <v>MERCADOLIBRE, INC. (XNAS:MELI)</v>
-    <v>377783</v>
-    <v>468349</v>
+    <v>336618</v>
+    <v>440447</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2198,9 +2202,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2645,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S197" sqref="S197"/>
     </sheetView>
@@ -14148,7 +14152,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14201,7 +14205,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>83524865675</v>
+        <v>79781942929</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -14221,15 +14225,15 @@
         <v>203</v>
       </c>
       <c r="G3" s="41">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>-1.0774663735356367E-3</v>
+        <f>AVERAGE(Financials!L129:O129)</f>
+        <v>1.9377476593633036E-3</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="103">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>54933825758.255959</v>
+        <v>54807037248.492355</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
@@ -14274,21 +14278,21 @@
       </c>
       <c r="G4" s="49">
         <f>A5*(1+(5*G3))</f>
-        <v>50287158.978942849</v>
+        <v>51049398.151467428</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="104">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>44970003948.985954</v>
+        <v>44858968033.536148</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="105" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.9470000000000001E-2</v>
+        <v>-8.1460000000000005E-3</v>
       </c>
       <c r="L4" s="50" t="s">
         <v>213</v>
@@ -14333,14 +14337,14 @@
       </c>
       <c r="I5" s="104">
         <f>I4+G5-G6</f>
-        <v>44141003948.985954</v>
+        <v>44029968033.536148</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1652.01</v>
+        <v>1577.98</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>220</v>
@@ -14360,7 +14364,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>5.8940699791828379</v>
+        <v>5.6299444590360599</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>222</v>
@@ -14388,14 +14392,14 @@
       </c>
       <c r="I6" s="107">
         <f>N25</f>
-        <v>9.0529752394115537E-2</v>
+        <v>9.0681346424158774E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="109">
         <f>I5/G4</f>
-        <v>877.77883748551949</v>
+        <v>862.49729924133294</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>226</v>
@@ -14415,14 +14419,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <f>O20/F12</f>
-        <v>75.247626734234231</v>
+        <v>71.875624260360354</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="101">
         <f>F15/A3</f>
-        <v>2.2376569957889968E-2</v>
+        <v>2.3426353525424558E-2</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>229</v>
@@ -14449,7 +14453,7 @@
       </c>
       <c r="K7" s="62">
         <f>K6/K5-1</f>
-        <v>-0.46866009437865419</v>
+        <v>-0.45341683719607795</v>
       </c>
       <c r="L7" s="63" t="s">
         <v>232</v>
@@ -14776,7 +14780,7 @@
       </c>
       <c r="O14" s="79">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
@@ -14928,7 +14932,7 @@
       </c>
       <c r="O17" s="89">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -15011,7 +15015,7 @@
       </c>
       <c r="O20" s="95">
         <f>A3</f>
-        <v>83524865675</v>
+        <v>79781942929</v>
       </c>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
@@ -15041,21 +15045,21 @@
       </c>
       <c r="O21" s="95">
         <f>O19+O20</f>
-        <v>89052865675</v>
+        <v>85309942929</v>
       </c>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="str" cm="1">
+      <c r="A22" s="124" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Mercado Libre Inc is a Uruguay-based e-commerce business facilitator of Argentinian origins. The e-commerce products enable retail and wholesale via Internet platforms designed to provide users with a portfolio of services to facilitate commercial transactions. The Company's geographic coverage includes 18 countries of Latin America. The primary offer is an ecosystem of six integrated e-commerce services: the Mercado Libre Marketplace, the Mercado Libre Classifieds service, the Mercado Pago payments solution, the Mercado Credito financial solutions, the Mercado Envios logistic solutions including shipping, the Mercado Ads advertising platform and the Mercado Shops digital storefront solution.</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="65"/>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
@@ -15069,18 +15073,18 @@
       </c>
       <c r="O22" s="97">
         <f>(O19/O21)</f>
-        <v>6.2075486938000773E-2</v>
+        <v>6.4799011817423549E-2</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="65"/>
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
@@ -15094,18 +15098,18 @@
       </c>
       <c r="O23" s="98">
         <f>O20/O21</f>
-        <v>0.9379245130619992</v>
+        <v>0.93520098818257646</v>
       </c>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
@@ -15123,11 +15127,11 @@
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
@@ -15138,7 +15142,7 @@
       <c r="M25" s="65"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.0529752394115537E-2</v>
+        <v>9.0681346424158774E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="45"/>
@@ -15146,11 +15150,11 @@
       <c r="R25" s="45"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
       <c r="H26" s="65"/>
@@ -15166,11 +15170,11 @@
       <c r="R26" s="45"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
@@ -15186,11 +15190,11 @@
       <c r="R27" s="45"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="65"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
@@ -15206,11 +15210,11 @@
       <c r="R28" s="45"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="65"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
@@ -15226,11 +15230,11 @@
       <c r="R29" s="45"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
       <c r="F30" s="65"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
